--- a/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27030BF2-D15A-4683-92F9-72E5D0DF4B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43ED95F-DEDF-4D11-AB70-1F0DB638C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26085" yWindow="2655" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43ED95F-DEDF-4D11-AB70-1F0DB638C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0693DC92-1600-4101-973D-E6CD290AE7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26085" yWindow="2655" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -140,22 +140,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>-5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.2500000000000001E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3409,12 +3409,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3460,9 +3460,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3539,509 +3539,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.1219169022925</v>
+        <v>169.78288031312678</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.59396634104317</v>
+        <v>161.77937968062491</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.59673307736111</v>
+        <v>158.42169444197043</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.14596044506746</v>
+        <v>153.84303275289616</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.962884655832</v>
+        <v>155.3692533159209</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.79019415580569</v>
+        <v>161.94421150143157</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.19338593058814</v>
+        <v>175.72293074441916</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>217.00616003687574</v>
+        <v>182.28567916542562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>226.45416593285142</v>
+        <v>190.2220260931544</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>214.70956783446937</v>
+        <v>180.35653637376234</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.83294325277728</v>
+        <v>176.26016038260389</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.57354661867299</v>
+        <v>160.08222241454141</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.29719871061269</v>
+        <v>155.65007789951747</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.3631142102389</v>
+        <v>133.02538427323839</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.7586874321301</v>
+        <v>138.39768065508554</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>149.40204400274806</v>
+        <v>125.49806445640023</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.35393686116464</v>
+        <v>122.09764504198108</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.58356099580047</v>
+        <v>121.45052752325857</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.48769756868171</v>
+        <v>123.05000667330852</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.37938382813209</v>
+        <v>139.75906939730362</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.65678430433678</v>
+        <v>169.39216784899247</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.38787952114362</v>
+        <v>169.16628720566479</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.6898297681619</v>
+        <v>160.17990053057497</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.39444550589042</v>
+        <v>152.37175613014028</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.01582105717787</v>
+        <v>161.29373629747045</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.964268023991</v>
+        <v>153.69041069659369</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>179.16689642349306</v>
+        <v>150.50060971987193</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.98866242281406</v>
+        <v>146.15088111525134</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.71474042304041</v>
+        <v>147.60079065012485</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.15068444801543</v>
+        <v>153.84700092636001</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>198.73371663405874</v>
+        <v>166.9367842071982</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>206.15585203503193</v>
+        <v>173.17139520715435</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>215.13145763620886</v>
+        <v>180.71092478849667</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.97408944274585</v>
+        <v>171.33870955507422</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.34129609013843</v>
+        <v>167.44715236347369</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.04486928773935</v>
+        <v>152.07811129381435</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.03233877508205</v>
+        <v>147.86757400454158</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.44495849972694</v>
+        <v>126.37411505957647</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.52075306052359</v>
+        <v>131.47779662233125</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>141.93194180261065</v>
+        <v>119.22316123358021</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.08624001810639</v>
+        <v>115.99276278988201</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.35438294601045</v>
+        <v>115.37800114709563</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.16331269024764</v>
+        <v>116.89750633964309</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.06041463672548</v>
+        <v>132.77111592743844</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.57394508911995</v>
+        <v>160.92255945654284</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.31848554508645</v>
+        <v>160.70797284538156</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.15533827975381</v>
+        <v>152.17090550404623</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.32472323059591</v>
+        <v>144.75316832363328</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>212.22801274740715</v>
+        <v>178.27202432878315</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.22366465809532</v>
+        <v>169.86834866465617</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>198.02656973122919</v>
+        <v>166.34277916406896</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.30325846732083</v>
+        <v>161.53518439054096</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.21102888862359</v>
+        <v>163.13771598171695</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.42970386359599</v>
+        <v>170.04142207650315</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>219.65305522711753</v>
+        <v>184.50907728164009</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>227.85646803871953</v>
+        <v>191.39996312369689</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.77687422949401</v>
+        <v>199.73312739781213</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.44504622619286</v>
+        <v>189.37436319245049</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.32459041541617</v>
+        <v>185.07316840173408</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200.10222394960664</v>
+        <v>168.08633353526847</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.5620586461433</v>
+        <v>163.43258179449333</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.28126992075084</v>
+        <v>139.67665348690031</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.99662180373662</v>
+        <v>145.31756468783982</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.87214620288546</v>
+        <v>131.77296767922024</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.62163370422289</v>
+        <v>128.20252729408014</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.81273904559049</v>
+        <v>127.52305389942148</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.81208244711581</v>
+        <v>129.20250700697395</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.6983530195387</v>
+        <v>146.74702286716882</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.73962351955362</v>
+        <v>177.86177624144207</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.45727349720082</v>
+        <v>177.62460156594801</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200.22432125657002</v>
+        <v>168.18889555710373</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.46416778118495</v>
+        <v>159.99034393664729</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.90972521206325</v>
+        <v>152.80459228181411</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.33456970693885</v>
+        <v>145.60144171256246</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.73705976962501</v>
+        <v>142.5795249977734</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.83136440056072</v>
+        <v>138.45872947760654</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.46659619024879</v>
+        <v>139.83232798432883</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.51117474022513</v>
+        <v>145.74979035128842</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.27404733752934</v>
+        <v>158.15063766997724</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.30554403318814</v>
+        <v>164.05711124888305</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.8087493395663</v>
+        <v>171.19982348383897</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>193.23861105102245</v>
+        <v>162.32088273638612</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.84964892749957</v>
+        <v>158.63414434434353</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.5161919568057</v>
+        <v>144.07400017308728</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.76747883955142</v>
+        <v>140.08507010956572</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>142.526802789215</v>
+        <v>119.72284584591455</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>148.2828186889171</v>
+        <v>124.55791258957699</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>134.46183960247325</v>
+        <v>112.9482580107602</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.81854317504818</v>
+        <v>109.88788053778298</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.12520489622042</v>
+        <v>109.30547477093272</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.83892781181353</v>
+        <v>110.74500600597766</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>149.74144544531887</v>
+        <v>125.78316245757325</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.49110587390314</v>
+        <v>152.45295106409321</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.24909156902928</v>
+        <v>152.24965848509831</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.62084679134571</v>
+        <v>144.16191047751749</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.25500095530137</v>
+        <v>137.13458051712627</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>222.33410859252177</v>
+        <v>186.76116834443948</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.85336297514749</v>
+        <v>177.95731764868742</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.45640638509727</v>
+        <v>174.26386388616751</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.46055648957423</v>
+        <v>169.22733602818579</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.45917312141523</v>
+        <v>170.906178647513</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>212.06921357138631</v>
+        <v>178.13863265157477</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.11272452364699</v>
+        <v>193.29522381886107</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>238.70677604056331</v>
+        <v>200.51424708196819</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>249.0995825261366</v>
+        <v>209.24422870246985</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>236.18052461791632</v>
+        <v>198.39219001113858</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.81623757805505</v>
+        <v>193.8861764208643</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.63090128054031</v>
+        <v>176.09044465599558</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.82691858167394</v>
+        <v>171.21508568946922</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.19942563126278</v>
+        <v>146.32792270056223</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.23455617534313</v>
+        <v>152.2374487205941</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.34224840302286</v>
+        <v>138.04787090204024</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.88933054728113</v>
+        <v>134.3074095461792</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.04191709538051</v>
+        <v>133.59558027558444</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.13646732554989</v>
+        <v>135.35500734063936</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.01732221094531</v>
+        <v>153.734976337034</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>221.82246273477048</v>
+        <v>186.33138463389173</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>221.52666747325802</v>
+        <v>186.08291592623129</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.75881274497812</v>
+        <v>176.1978905836325</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.53389005647949</v>
+        <v>167.60893174315433</v>
       </c>
     </row>
   </sheetData>
@@ -4058,9 +4058,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4137,512 +4137,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.424383380458501</v>
+        <v>45.701635172688327</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.424383380458501</v>
+        <v>45.701635172688327</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.761749867913259</v>
+        <v>46.083043591068858</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.21465819977896</v>
+        <v>46.595077408747393</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.424383380458501</v>
+        <v>45.701635172688327</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.290833186570289</v>
+        <v>51.203381767854282</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.21465819977896</v>
+        <v>46.595077408747393</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.308841536047559</v>
+        <v>45.571009773390315</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.950116540450445</v>
+        <v>44.034908320354681</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.13848321298763</v>
+        <v>41.986773049640512</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.23266654925623</v>
+        <v>40.962705414283427</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.685574881121937</v>
+        <v>41.474739231961976</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.13848321298763</v>
+        <v>41.986773049640512</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.59139154485333</v>
+        <v>42.498806867319047</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.59139154485333</v>
+        <v>42.498806867319047</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.59139154485333</v>
+        <v>42.498806867319047</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.59139154485333</v>
+        <v>42.498806867319047</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.13848321298763</v>
+        <v>41.986773049640512</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.497208208584745</v>
+        <v>43.522874502676139</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.855933204181859</v>
+        <v>45.058975955711773</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.403164211435573</v>
+        <v>43.416553414053908</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.403164211435573</v>
+        <v>43.416553414053908</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.723662374517588</v>
+        <v>43.77889141151541</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.15392528979001</v>
+        <v>44.265323538310028</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.403164211435573</v>
+        <v>43.416553414053908</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.026291527241774</v>
+        <v>48.64321267946157</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.15392528979001</v>
+        <v>44.265323538310028</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.29339945924518</v>
+        <v>43.292459284720799</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.002610713427927</v>
+        <v>41.833162904336952</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.14208488288309</v>
+        <v>40.860298650747715</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.281559052338253</v>
+        <v>39.887434397158479</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.421033221793415</v>
+        <v>38.91457014356925</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.851296137065845</v>
+        <v>39.401002270363875</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.281559052338253</v>
+        <v>39.887434397158479</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.711821967610668</v>
+        <v>40.373866523953097</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.14208488288309</v>
+        <v>40.860298650747715</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.711821967610668</v>
+        <v>40.373866523953097</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.14208488288309</v>
+        <v>40.860298650747715</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.711821967610668</v>
+        <v>40.373866523953097</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.14208488288309</v>
+        <v>40.860298650747715</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.711821967610668</v>
+        <v>40.373866523953097</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.281559052338253</v>
+        <v>39.887434397158479</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.572347798155505</v>
+        <v>41.346730777542334</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.863136543972757</v>
+        <v>42.806027157926181</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.445602549481428</v>
+        <v>47.986716931322746</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.445602549481428</v>
+        <v>47.986716931322746</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.799837361308924</v>
+        <v>48.387195770622306</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.275391109767909</v>
+        <v>48.924831279184765</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.445602549481428</v>
+        <v>47.986716931322746</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.555374845898804</v>
+        <v>53.763550856247001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.275391109767909</v>
+        <v>48.924831279184765</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.324283612849939</v>
+        <v>47.849560262059832</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.89762236747297</v>
+        <v>46.236653736372418</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.946514870554992</v>
+        <v>45.161382719247477</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.995407373637015</v>
+        <v>44.086111702122537</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.519853625178044</v>
+        <v>43.548476193560084</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.995407373637015</v>
+        <v>44.086111702122537</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.470961122096007</v>
+        <v>44.623747210685011</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.946514870554992</v>
+        <v>45.161382719247477</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.470961122096007</v>
+        <v>44.623747210685011</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.946514870554992</v>
+        <v>45.161382719247477</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.470961122096007</v>
+        <v>44.623747210685011</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.946514870554992</v>
+        <v>45.161382719247477</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.470961122096007</v>
+        <v>44.623747210685011</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.995407373637015</v>
+        <v>44.086111702122537</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.422068619013984</v>
+        <v>45.699018227809951</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Winter'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.381945042412653</v>
+        <v>41.131471655419496</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Winter'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.381945042412653</v>
+        <v>41.131471655419496</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Winter'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.68557488112193</v>
+        <v>41.474739231961969</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Winter'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.09319237980106</v>
+        <v>41.935569667872656</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Winter'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.381945042412653</v>
+        <v>41.131471655419496</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Winter'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.761749867913259</v>
+        <v>46.083043591068858</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Winter'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.09319237980106</v>
+        <v>41.935569667872656</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Winter'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.2779573824428</v>
+        <v>41.013908796051282</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Winter'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.055104886405402</v>
+        <v>39.631417488319215</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Winter'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.239869889047142</v>
+        <v>38.709756616497842</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Winter'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.424634891688875</v>
+        <v>37.788095744676461</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Winter'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.609399894330608</v>
+        <v>36.866434872855088</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Winter'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.017017393009745</v>
+        <v>37.327265308765782</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Winter'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.424634891688875</v>
+        <v>37.788095744676461</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Winter'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.832252390367998</v>
+        <v>38.248926180587141</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.239869889047142</v>
+        <v>38.709756616497842</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Winter'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.832252390367998</v>
+        <v>38.248926180587141</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Winter'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.239869889047142</v>
+        <v>38.709756616497842</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Winter'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.832252390367998</v>
+        <v>38.248926180587141</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Winter'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.239869889047142</v>
+        <v>38.709756616497842</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Winter'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.832252390367998</v>
+        <v>38.248926180587141</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Winter'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.424634891688875</v>
+        <v>37.788095744676461</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Winter'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.647487387726272</v>
+        <v>39.170587052408528</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.87033988376367</v>
+        <v>40.553078360140596</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Winter'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.466821718504356</v>
+        <v>50.271798689957173</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Winter'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.466821718504356</v>
+        <v>50.271798689957173</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Winter'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.837924854704589</v>
+        <v>50.691347950175739</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Winter'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.336124019756859</v>
+        <v>51.254585149622137</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Winter'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.466821718504356</v>
+        <v>50.271798689957173</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Winter'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.819916505227319</v>
+        <v>56.323719944639713</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Winter'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.336124019756859</v>
+        <v>51.254585149622137</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Winter'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.339725689652319</v>
+        <v>50.128110750729348</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Winter'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.845128194495494</v>
+        <v>48.438399152390154</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Winter'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Winter'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.8523315342864</v>
+        <v>46.185450354604562</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Winter'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.855933204181859</v>
+        <v>45.058975955711773</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Winter'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.354132369234136</v>
+        <v>45.622213155158178</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Winter'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.8523315342864</v>
+        <v>46.185450354604562</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Winter'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.35053069933867</v>
+        <v>46.748687554050953</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Winter'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.35053069933867</v>
+        <v>46.748687554050953</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Winter'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Winter'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.35053069933867</v>
+        <v>46.748687554050953</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Winter'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Winter'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.35053069933867</v>
+        <v>46.748687554050953</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Winter'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.8523315342864</v>
+        <v>46.185450354604562</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Winter'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.346929029443224</v>
+        <v>47.875161952943763</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.841526524600042</v>
+        <v>49.564873551282957</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4681,9 +4681,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4760,509 +4760,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>222.33410859252177</v>
+        <v>251.35899344978586</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.22564097247749</v>
+        <v>242.19199576195078</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.22564097247749</v>
+        <v>242.19199576195078</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>216.71663679773883</v>
+        <v>245.00818175918275</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.22564097247749</v>
+        <v>242.19199576195078</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.22564097247749</v>
+        <v>242.19199576195078</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.11272452364699</v>
+        <v>260.15307854656913</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.70677604056331</v>
+        <v>269.8690512896751</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.0995825261366</v>
+        <v>281.6185997231986</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>244.11759087561387</v>
+        <v>275.9862277287346</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>246.60858670087524</v>
+        <v>278.80241372596657</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.0995825261366</v>
+        <v>281.6185997231986</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>239.13559922509114</v>
+        <v>270.35385573427067</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.68062009878432</v>
+        <v>256.27292574811071</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>231.66261174930705</v>
+        <v>261.9052977425747</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>234.15360757456841</v>
+        <v>264.72148373980667</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>231.66261174930705</v>
+        <v>261.9052977425747</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.68062009878432</v>
+        <v>256.27292574811071</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.68062009878432</v>
+        <v>256.27292574811071</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>229.17161592404565</v>
+        <v>259.08911174534268</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>231.66261174930705</v>
+        <v>261.9052977425747</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>219.20763262300022</v>
+        <v>247.82436775641477</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>199.53389005647949</v>
+        <v>225.58229180947126</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>211.21740316289566</v>
+        <v>238.79104377729652</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.51435892385359</v>
+        <v>230.08239597385324</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.51435892385359</v>
+        <v>230.08239597385324</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>205.88080495785186</v>
+        <v>232.75777267122359</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.51435892385359</v>
+        <v>230.08239597385324</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.51435892385359</v>
+        <v>230.08239597385324</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.6070882974646</v>
+        <v>247.14542461924069</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.77143723853513</v>
+        <v>256.37559872519131</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.64460339982978</v>
+        <v>267.53766973703864</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>231.91171133183317</v>
+        <v>262.18691634229788</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>234.27815736583145</v>
+        <v>264.86229303966826</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.64460339982978</v>
+        <v>267.53766973703864</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>227.17881926383657</v>
+        <v>256.83616294755711</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>212.9801430598468</v>
+        <v>240.78390276333479</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>215.34658909384507</v>
+        <v>243.45927946070515</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.07948116184167</v>
+        <v>248.81003285544594</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>222.44592719583997</v>
+        <v>251.48540955281632</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.07948116184167</v>
+        <v>248.81003285544594</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>215.34658909384507</v>
+        <v>243.45927946070515</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>215.34658909384507</v>
+        <v>243.45927946070515</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.71303512784337</v>
+        <v>246.13465615807553</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.07948116184167</v>
+        <v>248.81003285544594</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>208.24725099185019</v>
+        <v>235.43314936859403</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>189.5571955536555</v>
+        <v>214.30317721899766</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>233.45081402214788</v>
+        <v>263.92694312227513</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.93692302110136</v>
+        <v>254.30159555004832</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.93692302110136</v>
+        <v>254.30159555004832</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>227.55246863762579</v>
+        <v>257.25859084714193</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.93692302110136</v>
+        <v>254.30159555004832</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.93692302110136</v>
+        <v>254.30159555004832</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>241.61836074982935</v>
+        <v>273.16073247389767</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>250.6421148425915</v>
+        <v>283.36250385415883</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.55456165244345</v>
+        <v>295.6995297093585</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.3234704193946</v>
+        <v>289.78553911517133</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>258.939016035919</v>
+        <v>292.74253441226494</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.55456165244345</v>
+        <v>295.6995297093585</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.09237918634568</v>
+        <v>283.87154852098416</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.39910548719911</v>
+        <v>266.12957673842266</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.01465110372354</v>
+        <v>269.08657203551627</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.24574233677242</v>
+        <v>275.00056262970344</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>245.86128795329682</v>
+        <v>277.95755792679699</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.24574233677242</v>
+        <v>275.00056262970344</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.01465110372354</v>
+        <v>269.08657203551627</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.01465110372354</v>
+        <v>269.08657203551627</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>240.63019672024794</v>
+        <v>272.04356733260983</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.24574233677242</v>
+        <v>275.00056262970344</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.16801425415022</v>
+        <v>260.21558614423549</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>209.51058455930348</v>
+        <v>236.86140639994485</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>200.10069773326961</v>
+        <v>226.22309410480727</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>195.04497311796496</v>
+        <v>220.50736358326449</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>207.1014520712823</v>
+        <v>234.13777069191227</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.83609843650697</v>
+        <v>242.88214616070755</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>219.70583178805248</v>
+        <v>248.38760495586115</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>221.94772803078772</v>
+        <v>250.92217235336992</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>215.22203930258203</v>
+        <v>243.31847016084356</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>201.77066184617064</v>
+        <v>228.11106577579085</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890588</v>
+        <v>230.64563317329961</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>210.73824681711156</v>
+        <v>238.249335365826</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890588</v>
+        <v>230.64563317329961</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890588</v>
+        <v>230.64563317329961</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>206.25445433164109</v>
+        <v>233.18020057080841</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>197.28686936070022</v>
+        <v>223.04193098077332</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>179.58050105083157</v>
+        <v>203.02406262852415</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>244.56751945177399</v>
+        <v>276.49489279476444</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.64820506972524</v>
+        <v>266.41119533814589</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.64820506972524</v>
+        <v>266.41119533814589</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.38830047751273</v>
+        <v>269.50899993510103</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.64820506972524</v>
+        <v>266.41119533814589</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.64820506972524</v>
+        <v>266.41119533814589</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.12399697601168</v>
+        <v>286.16838640122609</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.57745364461965</v>
+        <v>296.85595641864262</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.00954077875031</v>
+        <v>309.78045969551852</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>268.52934996317532</v>
+        <v>303.58485050160812</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>271.26944537096279</v>
+        <v>306.68265509856326</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.00954077875031</v>
+        <v>309.78045969551852</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>263.04915914760028</v>
+        <v>297.38924130769772</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>246.60858670087526</v>
+        <v>278.80241372596663</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.34868210866276</v>
+        <v>281.90021832292177</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.82887292423774</v>
+        <v>288.09582751683217</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>257.56896833202524</v>
+        <v>291.19363211378732</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.82887292423774</v>
+        <v>288.09582751683217</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.34868210866276</v>
+        <v>281.90021832292177</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.34868210866276</v>
+        <v>281.90021832292177</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>252.08877751645025</v>
+        <v>284.99802291987697</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.82887292423774</v>
+        <v>288.09582751683217</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>241.12839588530025</v>
+        <v>272.60680453205623</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>219.48727906212747</v>
+        <v>248.14052099041839</v>
       </c>
     </row>
   </sheetData>
@@ -5278,9 +5278,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5357,509 +5357,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>181.90972521206325</v>
+        <v>205.65735827709747</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.27552443202703</v>
+        <v>198.1570874415961</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.27552443202703</v>
+        <v>198.1570874415961</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>177.31361192542266</v>
+        <v>200.4612396211495</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.27552443202703</v>
+        <v>198.1570874415961</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.27552443202703</v>
+        <v>198.1570874415961</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.27404733752934</v>
+        <v>212.85251881082928</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.30554403318814</v>
+        <v>220.80195105518868</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8087493395663</v>
+        <v>230.41521795534427</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.73257435277498</v>
+        <v>225.80691359623739</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.77066184617064</v>
+        <v>228.11106577579085</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8087493395663</v>
+        <v>230.41521795534427</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.65639936598365</v>
+        <v>221.19860923713051</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>183.42787440560966</v>
+        <v>207.37369615980984</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.46596189900535</v>
+        <v>209.67784833936329</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>189.54213688579665</v>
+        <v>214.28615269847018</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.58022437919234</v>
+        <v>216.59030487802363</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>189.54213688579665</v>
+        <v>214.28615269847018</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.46596189900535</v>
+        <v>209.67784833936329</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.46596189900535</v>
+        <v>209.67784833936329</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>187.50404939240099</v>
+        <v>211.98200051891672</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>189.54213688579665</v>
+        <v>214.28615269847018</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>179.35169941881836</v>
+        <v>202.76539180070296</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>163.25500095530137</v>
+        <v>184.56732966229464</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>172.81423895146008</v>
+        <v>195.37449036324259</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.51174821042565</v>
+        <v>188.24923306951627</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.51174821042565</v>
+        <v>188.24923306951627</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>168.44793132915152</v>
+        <v>190.43817764009202</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.51174821042565</v>
+        <v>188.24923306951627</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.51174821042565</v>
+        <v>188.24923306951627</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.86034497065285</v>
+        <v>202.20989287028783</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.54026683152873</v>
+        <v>209.76185350242923</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.61831187258798</v>
+        <v>218.89445705757706</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>189.7459456351362</v>
+        <v>214.51656791642549</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.68212875386212</v>
+        <v>216.70551248700133</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.61831187258798</v>
+        <v>218.89445705757706</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.87357939768447</v>
+        <v>210.13867877527397</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>174.25648068532919</v>
+        <v>197.00501135181938</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>176.19266380405509</v>
+        <v>199.19395592239513</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.06503004150682</v>
+        <v>203.57184506354668</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>182.00121316023271</v>
+        <v>205.76078963412246</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.06503004150682</v>
+        <v>203.57184506354668</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>176.19266380405509</v>
+        <v>199.19395592239513</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>176.19266380405509</v>
+        <v>199.19395592239513</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.12884692278092</v>
+        <v>201.38290049297089</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.06503004150682</v>
+        <v>203.57184506354668</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>170.38411444787741</v>
+        <v>192.62712221066781</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>155.09225090753631</v>
+        <v>175.3389631791799</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.00521147266642</v>
+        <v>215.94022619095236</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.03930065362837</v>
+        <v>208.06494181367592</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.03930065362837</v>
+        <v>208.06494181367592</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>186.17929252169381</v>
+        <v>210.48430160220701</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.03930065362837</v>
+        <v>208.06494181367592</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.03930065362837</v>
+        <v>208.06494181367592</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>197.6877497044058</v>
+        <v>223.49514475137076</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.07082123484759</v>
+        <v>231.84204860794813</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.9991868065446</v>
+        <v>241.93597885311149</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.71920307041376</v>
+        <v>237.0972592760493</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>211.85919493847916</v>
+        <v>239.5166190645804</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.9991868065446</v>
+        <v>241.93597885311149</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.43921933428285</v>
+        <v>232.25853969898705</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.59926812589015</v>
+        <v>217.74238096780033</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.73925999395561</v>
+        <v>220.16174075633145</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.01924373008649</v>
+        <v>225.0004603333937</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.15923559815195</v>
+        <v>227.41982012192483</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.01924373008649</v>
+        <v>225.0004603333937</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.73925999395561</v>
+        <v>220.16174075633145</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.73925999395561</v>
+        <v>220.16174075633145</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>196.87925186202102</v>
+        <v>222.58110054486255</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.01924373008649</v>
+        <v>225.0004603333937</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.31928438975928</v>
+        <v>212.90366139073814</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>171.41775100306646</v>
+        <v>193.79569614540938</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>163.71875269085692</v>
+        <v>185.09162244938773</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>157.74797198882433</v>
+        <v>178.34137869743651</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>157.74797198882433</v>
+        <v>178.34137869743651</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>159.5822507328804</v>
+        <v>180.41511565903457</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>157.74797198882433</v>
+        <v>178.34137869743651</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>157.74797198882433</v>
+        <v>178.34137869743651</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>169.44664260377638</v>
+        <v>191.56726692974635</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.77498962986934</v>
+        <v>198.72175594966981</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>183.42787440560966</v>
+        <v>207.37369615980984</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>179.7593169174975</v>
+        <v>203.22622223661367</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>181.59359566155359</v>
+        <v>205.29995919821178</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>183.42787440560966</v>
+        <v>207.37369615980984</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>176.09075942938529</v>
+        <v>199.07874831341746</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>165.0850869650487</v>
+        <v>186.63632654382889</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.91936570910482</v>
+        <v>188.71006350542697</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>170.58792319721698</v>
+        <v>192.85753742862315</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>172.42220194127313</v>
+        <v>194.93127439022129</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>170.58792319721698</v>
+        <v>192.85753742862315</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.91936570910482</v>
+        <v>188.71006350542697</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.91936570910482</v>
+        <v>188.71006350542697</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>168.75364445316089</v>
+        <v>190.78380046702506</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>170.58792319721698</v>
+        <v>192.85753742862315</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>161.41652947693652</v>
+        <v>182.48885262063266</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>146.92950085977125</v>
+        <v>166.11059669606519</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>200.10069773326961</v>
+        <v>226.22309410480727</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.04497311796496</v>
+        <v>220.50736358326449</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.10145207128227</v>
+        <v>234.13777069191224</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.836098436507</v>
+        <v>242.88214616070758</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>219.70583178805248</v>
+        <v>248.38760495586115</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.94772803078774</v>
+        <v>250.92217235336997</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>215.22203930258206</v>
+        <v>243.31847016084362</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.77066184617064</v>
+        <v>228.11106577579085</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890591</v>
+        <v>230.64563317329967</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.73824681711159</v>
+        <v>238.24933536582603</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890591</v>
+        <v>230.64563317329967</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890591</v>
+        <v>230.64563317329967</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>206.25445433164109</v>
+        <v>233.18020057080841</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>197.28686936070019</v>
+        <v>223.04193098077326</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>179.58050105083154</v>
+        <v>203.02406262852412</v>
       </c>
     </row>
   </sheetData>
@@ -5875,9 +5875,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5954,509 +5954,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.1219169022925</v>
+        <v>169.78288031312678</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.59396634104317</v>
+        <v>161.77937968062491</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.59673307736111</v>
+        <v>158.42169444197043</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.14596044506746</v>
+        <v>153.84303275289616</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.962884655832</v>
+        <v>155.3692533159209</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.79019415580569</v>
+        <v>161.94421150143157</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.19338593058814</v>
+        <v>175.72293074441916</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>217.00616003687574</v>
+        <v>182.28567916542562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>226.45416593285142</v>
+        <v>190.2220260931544</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>214.70956783446937</v>
+        <v>180.35653637376234</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.83294325277728</v>
+        <v>176.26016038260389</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.57354661867299</v>
+        <v>160.08222241454141</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.29719871061269</v>
+        <v>155.65007789951747</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.3631142102389</v>
+        <v>133.02538427323839</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.7586874321301</v>
+        <v>138.39768065508554</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>149.40204400274806</v>
+        <v>125.49806445640023</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.35393686116464</v>
+        <v>122.09764504198108</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.58356099580047</v>
+        <v>121.45052752325857</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.48769756868171</v>
+        <v>123.05000667330852</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.37938382813209</v>
+        <v>139.75906939730362</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.65678430433678</v>
+        <v>169.39216784899247</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.38787952114362</v>
+        <v>169.16628720566479</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.6898297681619</v>
+        <v>160.17990053057497</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.39444550589042</v>
+        <v>152.37175613014028</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.01582105717787</v>
+        <v>161.29373629747045</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.964268023991</v>
+        <v>153.69041069659369</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>179.16689642349306</v>
+        <v>150.50060971987193</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.98866242281406</v>
+        <v>146.15088111525134</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.71474042304041</v>
+        <v>147.60079065012485</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.15068444801543</v>
+        <v>153.84700092636001</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>198.73371663405874</v>
+        <v>166.9367842071982</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>206.15585203503193</v>
+        <v>173.17139520715435</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>215.13145763620886</v>
+        <v>180.71092478849667</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.97408944274585</v>
+        <v>171.33870955507422</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.34129609013843</v>
+        <v>167.44715236347369</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.04486928773935</v>
+        <v>152.07811129381435</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.03233877508205</v>
+        <v>147.86757400454158</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.44495849972694</v>
+        <v>126.37411505957647</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.52075306052359</v>
+        <v>131.47779662233125</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>141.93194180261065</v>
+        <v>119.22316123358021</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.08624001810639</v>
+        <v>115.99276278988201</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.35438294601045</v>
+        <v>115.37800114709563</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.16331269024764</v>
+        <v>116.89750633964309</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.06041463672548</v>
+        <v>132.77111592743844</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.57394508911995</v>
+        <v>160.92255945654284</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.31848554508645</v>
+        <v>160.70797284538156</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.15533827975381</v>
+        <v>152.17090550404623</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.32472323059591</v>
+        <v>144.75316832363328</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>212.22801274740715</v>
+        <v>178.27202432878315</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.22366465809532</v>
+        <v>169.86834866465617</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>198.02656973122919</v>
+        <v>166.34277916406896</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>192.30325846732083</v>
+        <v>161.53518439054096</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.21102888862359</v>
+        <v>163.13771598171695</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>202.42970386359599</v>
+        <v>170.04142207650315</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>219.65305522711753</v>
+        <v>184.50907728164009</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>227.85646803871953</v>
+        <v>191.39996312369689</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>237.77687422949401</v>
+        <v>199.73312739781213</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>225.44504622619286</v>
+        <v>189.37436319245049</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>220.32459041541617</v>
+        <v>185.07316840173408</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200.10222394960664</v>
+        <v>168.08633353526847</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>194.5620586461433</v>
+        <v>163.43258179449333</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.28126992075084</v>
+        <v>139.67665348690031</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>172.99662180373662</v>
+        <v>145.31756468783982</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>156.87214620288546</v>
+        <v>131.77296767922024</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.62163370422289</v>
+        <v>128.20252729408014</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>151.81273904559049</v>
+        <v>127.52305389942148</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.81208244711581</v>
+        <v>129.20250700697395</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.6983530195387</v>
+        <v>146.74702286716882</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.73962351955362</v>
+        <v>177.86177624144207</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.45727349720082</v>
+        <v>177.62460156594801</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200.22432125657002</v>
+        <v>168.18889555710373</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.46416778118495</v>
+        <v>159.99034393664729</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.90972521206325</v>
+        <v>152.80459228181411</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.33456970693885</v>
+        <v>145.60144171256246</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.73705976962501</v>
+        <v>142.5795249977734</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.83136440056072</v>
+        <v>138.45872947760654</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.46659619024879</v>
+        <v>139.83232798432883</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.51117474022513</v>
+        <v>145.74979035128842</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.27404733752934</v>
+        <v>158.15063766997724</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>195.30554403318814</v>
+        <v>164.05711124888305</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.8087493395663</v>
+        <v>171.19982348383897</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>193.23861105102245</v>
+        <v>162.32088273638612</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>188.84964892749957</v>
+        <v>158.63414434434353</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.5161919568057</v>
+        <v>144.07400017308728</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.76747883955142</v>
+        <v>140.08507010956572</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>142.526802789215</v>
+        <v>119.72284584591455</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>148.2828186889171</v>
+        <v>124.55791258957699</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>134.46183960247325</v>
+        <v>112.9482580107602</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.81854317504818</v>
+        <v>109.88788053778298</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>130.12520489622042</v>
+        <v>109.30547477093272</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.83892781181353</v>
+        <v>110.74500600597766</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>149.74144544531887</v>
+        <v>125.78316245757325</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.49110587390314</v>
+        <v>152.45295106409321</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.24909156902928</v>
+        <v>152.24965848509831</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.62084679134571</v>
+        <v>144.16191047751749</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.25500095530137</v>
+        <v>137.13458051712627</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>222.33410859252177</v>
+        <v>186.76116834443948</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>211.85336297514749</v>
+        <v>177.95731764868742</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>207.45640638509727</v>
+        <v>174.26386388616751</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>201.46055648957423</v>
+        <v>169.22733602818579</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.45917312141523</v>
+        <v>170.906178647513</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>212.06921357138631</v>
+        <v>178.13863265157477</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.11272452364699</v>
+        <v>193.29522381886107</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>238.70677604056331</v>
+        <v>200.51424708196819</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>249.0995825261366</v>
+        <v>209.24422870246985</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>236.18052461791632</v>
+        <v>198.39219001113858</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>230.81623757805505</v>
+        <v>193.8861764208643</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.63090128054031</v>
+        <v>176.09044465599558</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>203.82691858167394</v>
+        <v>171.21508568946922</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.19942563126278</v>
+        <v>146.32792270056223</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>181.23455617534313</v>
+        <v>152.2374487205941</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.34224840302286</v>
+        <v>138.04787090204024</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.88933054728113</v>
+        <v>134.3074095461792</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.04191709538051</v>
+        <v>133.59558027558444</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.13646732554989</v>
+        <v>135.35500734063936</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>183.01732221094531</v>
+        <v>153.734976337034</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>221.82246273477048</v>
+        <v>186.33138463389173</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>221.52666747325802</v>
+        <v>186.08291592623129</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.75881274497812</v>
+        <v>176.1978905836325</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.53389005647949</v>
+        <v>167.60893174315433</v>
       </c>
     </row>
   </sheetData>
@@ -6473,9 +6473,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6552,512 +6552,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.424383380458501</v>
+        <v>45.701635172688327</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.424383380458501</v>
+        <v>45.701635172688327</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.761749867913259</v>
+        <v>46.083043591068858</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.21465819977896</v>
+        <v>46.595077408747393</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.424383380458501</v>
+        <v>45.701635172688327</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.290833186570289</v>
+        <v>51.203381767854282</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.21465819977896</v>
+        <v>46.595077408747393</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.308841536047559</v>
+        <v>45.571009773390315</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.950116540450445</v>
+        <v>44.034908320354681</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.13848321298763</v>
+        <v>41.986773049640512</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.23266654925623</v>
+        <v>40.962705414283427</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.685574881121937</v>
+        <v>41.474739231961976</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.13848321298763</v>
+        <v>41.986773049640512</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.59139154485333</v>
+        <v>42.498806867319047</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.59139154485333</v>
+        <v>42.498806867319047</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.59139154485333</v>
+        <v>42.498806867319047</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.59139154485333</v>
+        <v>42.498806867319047</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.13848321298763</v>
+        <v>41.986773049640512</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.497208208584745</v>
+        <v>43.522874502676139</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.855933204181859</v>
+        <v>45.058975955711773</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.403164211435573</v>
+        <v>43.416553414053908</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.403164211435573</v>
+        <v>43.416553414053908</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.723662374517588</v>
+        <v>43.77889141151541</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.15392528979001</v>
+        <v>44.265323538310028</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.403164211435573</v>
+        <v>43.416553414053908</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.026291527241774</v>
+        <v>48.64321267946157</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.15392528979001</v>
+        <v>44.265323538310028</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.29339945924518</v>
+        <v>43.292459284720799</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.002610713427927</v>
+        <v>41.833162904336952</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.14208488288309</v>
+        <v>40.860298650747715</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.281559052338253</v>
+        <v>39.887434397158479</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.421033221793415</v>
+        <v>38.91457014356925</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.851296137065845</v>
+        <v>39.401002270363875</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.281559052338253</v>
+        <v>39.887434397158479</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.711821967610668</v>
+        <v>40.373866523953097</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.14208488288309</v>
+        <v>40.860298650747715</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.711821967610668</v>
+        <v>40.373866523953097</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.14208488288309</v>
+        <v>40.860298650747715</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.711821967610668</v>
+        <v>40.373866523953097</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.14208488288309</v>
+        <v>40.860298650747715</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.711821967610668</v>
+        <v>40.373866523953097</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.281559052338253</v>
+        <v>39.887434397158479</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.572347798155505</v>
+        <v>41.346730777542334</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.863136543972757</v>
+        <v>42.806027157926181</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.445602549481428</v>
+        <v>47.986716931322746</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.445602549481428</v>
+        <v>47.986716931322746</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.799837361308924</v>
+        <v>48.387195770622306</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.275391109767909</v>
+        <v>48.924831279184765</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.445602549481428</v>
+        <v>47.986716931322746</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.555374845898804</v>
+        <v>53.763550856247001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.275391109767909</v>
+        <v>48.924831279184765</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.324283612849939</v>
+        <v>47.849560262059832</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.89762236747297</v>
+        <v>46.236653736372418</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.946514870554992</v>
+        <v>45.161382719247477</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.995407373637015</v>
+        <v>44.086111702122537</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.044299876719045</v>
+        <v>43.010840684997603</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.519853625178044</v>
+        <v>43.548476193560084</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.995407373637015</v>
+        <v>44.086111702122537</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.470961122096007</v>
+        <v>44.623747210685011</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.946514870554992</v>
+        <v>45.161382719247477</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.470961122096007</v>
+        <v>44.623747210685011</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.946514870554992</v>
+        <v>45.161382719247477</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.470961122096007</v>
+        <v>44.623747210685011</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.946514870554992</v>
+        <v>45.161382719247477</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.470961122096007</v>
+        <v>44.623747210685011</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.995407373637015</v>
+        <v>44.086111702122537</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.422068619013984</v>
+        <v>45.699018227809951</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.381945042412653</v>
+        <v>41.131471655419496</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.381945042412653</v>
+        <v>41.131471655419496</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.68557488112193</v>
+        <v>41.474739231961969</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.09319237980106</v>
+        <v>41.935569667872656</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.381945042412653</v>
+        <v>41.131471655419496</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.761749867913259</v>
+        <v>46.083043591068858</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.09319237980106</v>
+        <v>41.935569667872656</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.2779573824428</v>
+        <v>41.013908796051282</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.055104886405402</v>
+        <v>39.631417488319215</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.239869889047142</v>
+        <v>38.709756616497842</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.424634891688875</v>
+        <v>37.788095744676461</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>32.609399894330608</v>
+        <v>36.866434872855088</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.017017393009745</v>
+        <v>37.327265308765782</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.424634891688875</v>
+        <v>37.788095744676461</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.832252390367998</v>
+        <v>38.248926180587141</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.239869889047142</v>
+        <v>38.709756616497842</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.832252390367998</v>
+        <v>38.248926180587141</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.239869889047142</v>
+        <v>38.709756616497842</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.832252390367998</v>
+        <v>38.248926180587141</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.239869889047142</v>
+        <v>38.709756616497842</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.832252390367998</v>
+        <v>38.248926180587141</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>33.424634891688875</v>
+        <v>37.788095744676461</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>34.647487387726272</v>
+        <v>39.170587052408528</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>35.87033988376367</v>
+        <v>40.553078360140596</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.466821718504356</v>
+        <v>50.271798689957173</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.466821718504356</v>
+        <v>50.271798689957173</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.837924854704589</v>
+        <v>50.691347950175739</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.336124019756859</v>
+        <v>51.254585149622137</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.466821718504356</v>
+        <v>50.271798689957173</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.819916505227319</v>
+        <v>56.323719944639713</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.336124019756859</v>
+        <v>51.254585149622137</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.339725689652319</v>
+        <v>50.128110750729348</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.845128194495494</v>
+        <v>48.438399152390154</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.8523315342864</v>
+        <v>46.185450354604562</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.855933204181859</v>
+        <v>45.058975955711773</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.354132369234136</v>
+        <v>45.622213155158178</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.8523315342864</v>
+        <v>46.185450354604562</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.35053069933867</v>
+        <v>46.748687554050953</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.35053069933867</v>
+        <v>46.748687554050953</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.35053069933867</v>
+        <v>46.748687554050953</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.848729864390954</v>
+        <v>47.311924753497365</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.35053069933867</v>
+        <v>46.748687554050953</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.8523315342864</v>
+        <v>46.185450354604562</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.346929029443224</v>
+        <v>47.875161952943763</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.841526524600042</v>
+        <v>49.564873551282957</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7096,9 +7096,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7175,509 +7175,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>222.33410859252177</v>
+        <v>251.35899344978586</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.22564097247749</v>
+        <v>242.19199576195078</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.22564097247749</v>
+        <v>242.19199576195078</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>216.71663679773883</v>
+        <v>245.00818175918275</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.22564097247749</v>
+        <v>242.19199576195078</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.22564097247749</v>
+        <v>242.19199576195078</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.11272452364699</v>
+        <v>260.15307854656913</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.70677604056331</v>
+        <v>269.8690512896751</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.0995825261366</v>
+        <v>281.6185997231986</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>244.11759087561387</v>
+        <v>275.9862277287346</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>246.60858670087524</v>
+        <v>278.80241372596657</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.0995825261366</v>
+        <v>281.6185997231986</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>239.13559922509114</v>
+        <v>270.35385573427067</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.68062009878432</v>
+        <v>256.27292574811071</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>231.66261174930705</v>
+        <v>261.9052977425747</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>234.15360757456841</v>
+        <v>264.72148373980667</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>231.66261174930705</v>
+        <v>261.9052977425747</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.68062009878432</v>
+        <v>256.27292574811071</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.68062009878432</v>
+        <v>256.27292574811071</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>229.17161592404565</v>
+        <v>259.08911174534268</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>231.66261174930705</v>
+        <v>261.9052977425747</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>219.20763262300022</v>
+        <v>247.82436775641477</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>199.53389005647949</v>
+        <v>225.58229180947126</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>211.21740316289566</v>
+        <v>238.79104377729652</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.51435892385359</v>
+        <v>230.08239597385324</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.51435892385359</v>
+        <v>230.08239597385324</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>205.88080495785186</v>
+        <v>232.75777267122359</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.51435892385359</v>
+        <v>230.08239597385324</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.51435892385359</v>
+        <v>230.08239597385324</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>218.6070882974646</v>
+        <v>247.14542461924069</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.77143723853513</v>
+        <v>256.37559872519131</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.64460339982978</v>
+        <v>267.53766973703864</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>231.91171133183317</v>
+        <v>262.18691634229788</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>234.27815736583145</v>
+        <v>264.86229303966826</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.64460339982978</v>
+        <v>267.53766973703864</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>227.17881926383657</v>
+        <v>256.83616294755711</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>212.9801430598468</v>
+        <v>240.78390276333479</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>215.34658909384507</v>
+        <v>243.45927946070515</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.07948116184167</v>
+        <v>248.81003285544594</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>222.44592719583997</v>
+        <v>251.48540955281632</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.07948116184167</v>
+        <v>248.81003285544594</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>215.34658909384507</v>
+        <v>243.45927946070515</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>215.34658909384507</v>
+        <v>243.45927946070515</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.71303512784337</v>
+        <v>246.13465615807553</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.07948116184167</v>
+        <v>248.81003285544594</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>208.24725099185019</v>
+        <v>235.43314936859403</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>189.5571955536555</v>
+        <v>214.30317721899766</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>233.45081402214788</v>
+        <v>263.92694312227513</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.93692302110136</v>
+        <v>254.30159555004832</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.93692302110136</v>
+        <v>254.30159555004832</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>227.55246863762579</v>
+        <v>257.25859084714193</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.93692302110136</v>
+        <v>254.30159555004832</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.93692302110136</v>
+        <v>254.30159555004832</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>241.61836074982935</v>
+        <v>273.16073247389767</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>250.6421148425915</v>
+        <v>283.36250385415883</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.55456165244345</v>
+        <v>295.6995297093585</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.3234704193946</v>
+        <v>289.78553911517133</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>258.939016035919</v>
+        <v>292.74253441226494</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.55456165244345</v>
+        <v>295.6995297093585</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.09237918634568</v>
+        <v>283.87154852098416</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.39910548719911</v>
+        <v>266.12957673842266</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.01465110372354</v>
+        <v>269.08657203551627</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.24574233677242</v>
+        <v>275.00056262970344</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>245.86128795329682</v>
+        <v>277.95755792679699</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.24574233677242</v>
+        <v>275.00056262970344</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.01465110372354</v>
+        <v>269.08657203551627</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.01465110372354</v>
+        <v>269.08657203551627</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>240.63019672024794</v>
+        <v>272.04356733260983</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.24574233677242</v>
+        <v>275.00056262970344</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.16801425415022</v>
+        <v>260.21558614423549</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>209.51058455930348</v>
+        <v>236.86140639994485</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>200.10069773326961</v>
+        <v>226.22309410480727</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>195.04497311796496</v>
+        <v>220.50736358326449</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>207.1014520712823</v>
+        <v>234.13777069191227</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.83609843650697</v>
+        <v>242.88214616070755</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>219.70583178805248</v>
+        <v>248.38760495586115</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>221.94772803078772</v>
+        <v>250.92217235336992</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>215.22203930258203</v>
+        <v>243.31847016084356</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>201.77066184617064</v>
+        <v>228.11106577579085</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890588</v>
+        <v>230.64563317329961</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>210.73824681711156</v>
+        <v>238.249335365826</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890588</v>
+        <v>230.64563317329961</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890588</v>
+        <v>230.64563317329961</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>206.25445433164109</v>
+        <v>233.18020057080841</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>197.28686936070022</v>
+        <v>223.04193098077332</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>179.58050105083157</v>
+        <v>203.02406262852415</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>244.56751945177399</v>
+        <v>276.49489279476444</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.64820506972524</v>
+        <v>266.41119533814589</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.64820506972524</v>
+        <v>266.41119533814589</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.38830047751273</v>
+        <v>269.50899993510103</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.64820506972524</v>
+        <v>266.41119533814589</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.64820506972524</v>
+        <v>266.41119533814589</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.12399697601168</v>
+        <v>286.16838640122609</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.57745364461965</v>
+        <v>296.85595641864262</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.00954077875031</v>
+        <v>309.78045969551852</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>268.52934996317532</v>
+        <v>303.58485050160812</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>271.26944537096279</v>
+        <v>306.68265509856326</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>274.00954077875031</v>
+        <v>309.78045969551852</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>263.04915914760028</v>
+        <v>297.38924130769772</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>246.60858670087526</v>
+        <v>278.80241372596663</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.34868210866276</v>
+        <v>281.90021832292177</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.82887292423774</v>
+        <v>288.09582751683217</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>257.56896833202524</v>
+        <v>291.19363211378732</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.82887292423774</v>
+        <v>288.09582751683217</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.34868210866276</v>
+        <v>281.90021832292177</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>249.34868210866276</v>
+        <v>281.90021832292177</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>252.08877751645025</v>
+        <v>284.99802291987697</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.82887292423774</v>
+        <v>288.09582751683217</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>241.12839588530025</v>
+        <v>272.60680453205623</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>219.48727906212747</v>
+        <v>248.14052099041839</v>
       </c>
     </row>
   </sheetData>
@@ -7693,9 +7693,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7772,509 +7772,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>181.90972521206325</v>
+        <v>205.65735827709747</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.27552443202703</v>
+        <v>198.1570874415961</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.27552443202703</v>
+        <v>198.1570874415961</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>177.31361192542266</v>
+        <v>200.4612396211495</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.27552443202703</v>
+        <v>198.1570874415961</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.27552443202703</v>
+        <v>198.1570874415961</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.27404733752934</v>
+        <v>212.85251881082928</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.30554403318814</v>
+        <v>220.80195105518868</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8087493395663</v>
+        <v>230.41521795534427</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.73257435277498</v>
+        <v>225.80691359623739</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.77066184617064</v>
+        <v>228.11106577579085</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.8087493395663</v>
+        <v>230.41521795534427</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.65639936598365</v>
+        <v>221.19860923713051</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>183.42787440560966</v>
+        <v>207.37369615980984</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.46596189900535</v>
+        <v>209.67784833936329</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>189.54213688579665</v>
+        <v>214.28615269847018</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.58022437919234</v>
+        <v>216.59030487802363</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>189.54213688579665</v>
+        <v>214.28615269847018</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.46596189900535</v>
+        <v>209.67784833936329</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.46596189900535</v>
+        <v>209.67784833936329</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>187.50404939240099</v>
+        <v>211.98200051891672</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>189.54213688579665</v>
+        <v>214.28615269847018</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>179.35169941881836</v>
+        <v>202.76539180070296</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>163.25500095530137</v>
+        <v>184.56732966229464</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>172.81423895146008</v>
+        <v>195.37449036324259</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.51174821042565</v>
+        <v>188.24923306951627</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.51174821042565</v>
+        <v>188.24923306951627</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>168.44793132915152</v>
+        <v>190.43817764009202</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.51174821042565</v>
+        <v>188.24923306951627</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.51174821042565</v>
+        <v>188.24923306951627</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.86034497065285</v>
+        <v>202.20989287028783</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.54026683152873</v>
+        <v>209.76185350242923</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.61831187258798</v>
+        <v>218.89445705757706</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>189.7459456351362</v>
+        <v>214.51656791642549</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.68212875386212</v>
+        <v>216.70551248700133</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.61831187258798</v>
+        <v>218.89445705757706</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.87357939768447</v>
+        <v>210.13867877527397</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>174.25648068532919</v>
+        <v>197.00501135181938</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>176.19266380405509</v>
+        <v>199.19395592239513</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.06503004150682</v>
+        <v>203.57184506354668</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>182.00121316023271</v>
+        <v>205.76078963412246</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.06503004150682</v>
+        <v>203.57184506354668</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>176.19266380405509</v>
+        <v>199.19395592239513</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>176.19266380405509</v>
+        <v>199.19395592239513</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.12884692278092</v>
+        <v>201.38290049297089</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.06503004150682</v>
+        <v>203.57184506354668</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>170.38411444787741</v>
+        <v>192.62712221066781</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>155.09225090753631</v>
+        <v>175.3389631791799</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.00521147266642</v>
+        <v>215.94022619095236</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.03930065362837</v>
+        <v>208.06494181367592</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.03930065362837</v>
+        <v>208.06494181367592</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>186.17929252169381</v>
+        <v>210.48430160220701</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.03930065362837</v>
+        <v>208.06494181367592</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.03930065362837</v>
+        <v>208.06494181367592</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>197.6877497044058</v>
+        <v>223.49514475137076</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.07082123484759</v>
+        <v>231.84204860794813</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.9991868065446</v>
+        <v>241.93597885311149</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.71920307041376</v>
+        <v>237.0972592760493</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>211.85919493847916</v>
+        <v>239.5166190645804</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>213.9991868065446</v>
+        <v>241.93597885311149</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.43921933428285</v>
+        <v>232.25853969898705</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.59926812589015</v>
+        <v>217.74238096780033</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.73925999395561</v>
+        <v>220.16174075633145</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.01924373008649</v>
+        <v>225.0004603333937</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.15923559815195</v>
+        <v>227.41982012192483</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.01924373008649</v>
+        <v>225.0004603333937</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.73925999395561</v>
+        <v>220.16174075633145</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.73925999395561</v>
+        <v>220.16174075633145</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>196.87925186202102</v>
+        <v>222.58110054486255</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.01924373008649</v>
+        <v>225.0004603333937</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.31928438975928</v>
+        <v>212.90366139073814</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>171.41775100306646</v>
+        <v>193.79569614540938</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>163.71875269085692</v>
+        <v>185.09162244938773</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>157.74797198882433</v>
+        <v>178.34137869743651</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>157.74797198882433</v>
+        <v>178.34137869743651</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>159.5822507328804</v>
+        <v>180.41511565903457</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>157.74797198882433</v>
+        <v>178.34137869743651</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>157.74797198882433</v>
+        <v>178.34137869743651</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>169.44664260377638</v>
+        <v>191.56726692974635</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.77498962986934</v>
+        <v>198.72175594966981</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>183.42787440560966</v>
+        <v>207.37369615980984</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>179.7593169174975</v>
+        <v>203.22622223661367</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>181.59359566155359</v>
+        <v>205.29995919821178</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>183.42787440560966</v>
+        <v>207.37369615980984</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>176.09075942938529</v>
+        <v>199.07874831341746</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>165.0850869650487</v>
+        <v>186.63632654382889</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.91936570910482</v>
+        <v>188.71006350542697</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>170.58792319721698</v>
+        <v>192.85753742862315</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>172.42220194127313</v>
+        <v>194.93127439022129</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>170.58792319721698</v>
+        <v>192.85753742862315</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.91936570910482</v>
+        <v>188.71006350542697</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.91936570910482</v>
+        <v>188.71006350542697</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>168.75364445316089</v>
+        <v>190.78380046702506</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>170.58792319721698</v>
+        <v>192.85753742862315</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>161.41652947693652</v>
+        <v>182.48885262063266</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>146.92950085977125</v>
+        <v>166.11059669606519</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>200.10069773326961</v>
+        <v>226.22309410480727</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.04497311796496</v>
+        <v>220.50736358326449</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.80307687522975</v>
+        <v>217.97279618575573</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.10145207128227</v>
+        <v>234.13777069191224</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.836098436507</v>
+        <v>242.88214616070758</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>219.70583178805248</v>
+        <v>248.38760495586115</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.94772803078774</v>
+        <v>250.92217235336997</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>224.18962427352295</v>
+        <v>253.45673975087874</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>215.22203930258206</v>
+        <v>243.31847016084362</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.77066184617064</v>
+        <v>228.11106577579085</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890591</v>
+        <v>230.64563317329967</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.73824681711159</v>
+        <v>238.24933536582603</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890591</v>
+        <v>230.64563317329967</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>204.01255808890591</v>
+        <v>230.64563317329967</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>206.25445433164109</v>
+        <v>233.18020057080841</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.49635057437632</v>
+        <v>235.7147679683172</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>197.28686936070019</v>
+        <v>223.04193098077326</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>179.58050105083154</v>
+        <v>203.02406262852412</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0693DC92-1600-4101-973D-E6CD290AE7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3916E00-C60B-4956-B243-5E61F6FDC21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -150,12 +150,12 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.5000000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>2.5000000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4055,7 +4055,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4677,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E119D8D-D7FD-46DB-8300-FC3B5CEFAAC8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4766,99 +4766,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.35899344978586</v>
+        <v>206.40318388526612</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.19199576195078</v>
+        <v>198.87571298211734</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.19199576195078</v>
+        <v>198.87571298211734</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>245.00818175918275</v>
+        <v>201.18822127260705</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.19199576195078</v>
+        <v>198.87571298211734</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.19199576195078</v>
+        <v>198.87571298211734</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.15307854656913</v>
+        <v>213.62443799048935</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.8690512896751</v>
+        <v>221.60269920643483</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.6185997231986</v>
+        <v>231.25082904897366</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.9862277287346</v>
+        <v>226.62581246799417</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>278.80241372596657</v>
+        <v>228.93832075848388</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.6185997231986</v>
+        <v>231.25082904897366</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.35385573427067</v>
+        <v>222.00079588701468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.27292574811071</v>
+        <v>210.43825443456601</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.9052977425747</v>
+        <v>215.0632710155455</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>264.72148373980667</v>
+        <v>217.37577930603521</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.9052977425747</v>
+        <v>215.0632710155455</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.27292574811071</v>
+        <v>210.43825443456601</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.27292574811071</v>
+        <v>210.43825443456601</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>259.08911174534268</v>
+        <v>212.75076272505572</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.9052977425747</v>
+        <v>215.0632710155455</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.82436775641477</v>
+        <v>203.5007295630968</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>225.58229180947126</v>
+        <v>185.23667133840411</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4867,99 +4867,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.79104377729652</v>
+        <v>196.08302469100281</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.08239597385324</v>
+        <v>188.93192733301146</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.08239597385324</v>
+        <v>188.93192733301146</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>232.75777267122359</v>
+        <v>191.12881020897669</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.08239597385324</v>
+        <v>188.93192733301146</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.08239597385324</v>
+        <v>188.93192733301146</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.14542461924069</v>
+        <v>202.94321609096485</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.37559872519131</v>
+        <v>210.52256424611306</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.53766973703864</v>
+        <v>219.68828759652496</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.18691634229788</v>
+        <v>215.29452184459447</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>264.86229303966826</v>
+        <v>217.49140472055967</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.53766973703864</v>
+        <v>219.68828759652496</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.83616294755711</v>
+        <v>210.90075609266395</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>240.78390276333479</v>
+        <v>197.71945883687246</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.45927946070515</v>
+        <v>199.91634171283769</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.81003285544594</v>
+        <v>204.31010746476818</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.48540955281632</v>
+        <v>206.50699034073344</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.81003285544594</v>
+        <v>204.31010746476818</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.45927946070515</v>
+        <v>199.91634171283769</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.45927946070515</v>
+        <v>199.91634171283769</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>246.13465615807553</v>
+        <v>202.11322458880295</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.81003285544594</v>
+        <v>204.31010746476818</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.43314936859403</v>
+        <v>193.32569308494195</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.30317721899766</v>
+        <v>175.97483777148389</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4968,99 +4968,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>263.92694312227513</v>
+        <v>216.72334307952943</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.30159555004832</v>
+        <v>208.81949863122321</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.30159555004832</v>
+        <v>208.81949863122321</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>257.25859084714193</v>
+        <v>211.24763233623742</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.30159555004832</v>
+        <v>208.81949863122321</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.30159555004832</v>
+        <v>208.81949863122321</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>273.16073247389767</v>
+        <v>224.30565989001383</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>283.36250385415883</v>
+        <v>232.68283416675661</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.6995297093585</v>
+        <v>242.81337050142233</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>289.78553911517133</v>
+        <v>237.95710309139386</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>292.74253441226494</v>
+        <v>240.38523679640809</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.6995297093585</v>
+        <v>242.81337050142233</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>283.87154852098416</v>
+        <v>233.10083568136542</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.12957673842266</v>
+        <v>218.53203345128011</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.08657203551627</v>
+        <v>220.96016715629432</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.00056262970344</v>
+        <v>225.81643456632278</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>277.95755792679699</v>
+        <v>228.24456827133696</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.00056262970344</v>
+        <v>225.81643456632278</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.08657203551627</v>
+        <v>220.96016715629432</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.08657203551627</v>
+        <v>220.96016715629432</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>272.04356733260983</v>
+        <v>223.38830086130852</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.00056262970344</v>
+        <v>225.81643456632278</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.21558614423549</v>
+        <v>213.67576604125165</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.86140639994485</v>
+        <v>194.49850490532435</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5069,99 +5069,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.22309410480727</v>
+        <v>185.76286549673949</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.50736358326449</v>
+        <v>181.06939914534635</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>234.13777069191227</v>
+        <v>192.26199419144044</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.88214616070755</v>
+        <v>199.44242928579135</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.38760495586115</v>
+        <v>203.96323122119475</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>250.92217235336992</v>
+        <v>206.04448868263549</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.31847016084356</v>
+        <v>199.8007162983132</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>228.11106577579085</v>
+        <v>187.31317152966864</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329961</v>
+        <v>189.39442899110941</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.249335365826</v>
+        <v>195.63820137543169</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329961</v>
+        <v>189.39442899110941</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329961</v>
+        <v>189.39442899110941</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>233.18020057080841</v>
+        <v>191.47568645255015</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>223.04193098077332</v>
+        <v>183.15065660678715</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.02406262852415</v>
+        <v>166.71300420456373</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -5170,99 +5170,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.49489279476444</v>
+        <v>227.04350227379277</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.41119533814589</v>
+        <v>218.76328428032906</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.41119533814589</v>
+        <v>218.76328428032906</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.50899993510103</v>
+        <v>221.30704339986778</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.41119533814589</v>
+        <v>218.76328428032906</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.41119533814589</v>
+        <v>218.76328428032906</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>286.16838640122609</v>
+        <v>234.9868817895383</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>296.85595641864262</v>
+        <v>243.76296912707832</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>309.78045969551852</v>
+        <v>254.37591195387103</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>303.58485050160812</v>
+        <v>249.28839371479361</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>306.68265509856326</v>
+        <v>251.83215283433231</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>309.78045969551852</v>
+        <v>254.37591195387103</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.38924130769772</v>
+        <v>244.2008754757162</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>278.80241372596663</v>
+        <v>228.93832075848391</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.90021832292177</v>
+        <v>231.4820798780226</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.09582751683217</v>
+        <v>236.56959811710004</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>291.19363211378732</v>
+        <v>239.11335723663873</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.09582751683217</v>
+        <v>236.56959811710004</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.90021832292177</v>
+        <v>231.4820798780226</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.90021832292177</v>
+        <v>231.4820798780226</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>284.99802291987697</v>
+        <v>234.02583899756132</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.09582751683217</v>
+        <v>236.56959811710004</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>272.60680453205623</v>
+        <v>223.8508025194065</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.14052099041839</v>
+        <v>203.76033847224454</v>
       </c>
     </row>
   </sheetData>
@@ -5363,99 +5363,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.65735827709747</v>
+        <v>168.87533226976316</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.1570874415961</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.1570874415961</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>200.4612396211495</v>
+        <v>164.60854467758759</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.1570874415961</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.1570874415961</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>212.85251881082928</v>
+        <v>174.78363108312763</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.80195105518868</v>
+        <v>181.31129935071939</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.41521795534427</v>
+        <v>189.20522376734203</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.80691359623739</v>
+        <v>185.42111929199521</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.11106577579085</v>
+        <v>187.31317152966864</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.41521795534427</v>
+        <v>189.20522376734203</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.19860923713051</v>
+        <v>181.63701481664839</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.37369615980984</v>
+        <v>170.28470139060784</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.67784833936329</v>
+        <v>172.17675362828126</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.28615269847018</v>
+        <v>175.96085810362811</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.59030487802363</v>
+        <v>177.85291034130154</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.28615269847018</v>
+        <v>175.96085810362811</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.67784833936329</v>
+        <v>172.17675362828126</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.67784833936329</v>
+        <v>172.17675362828126</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>211.98200051891672</v>
+        <v>174.06880586595469</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.28615269847018</v>
+        <v>175.96085810362811</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.76539180070296</v>
+        <v>166.50059691526101</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.56732966229464</v>
+        <v>151.55727654960336</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -5464,99 +5464,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.37449036324259</v>
+        <v>160.43156565627498</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.24923306951627</v>
+        <v>154.58066781791845</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.24923306951627</v>
+        <v>154.58066781791845</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>190.43817764009202</v>
+        <v>156.37811744370819</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.24923306951627</v>
+        <v>154.58066781791845</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.24923306951627</v>
+        <v>154.58066781791845</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.20989287028783</v>
+        <v>166.04444952897123</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.76185350242923</v>
+        <v>172.24573438318342</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.89445705757706</v>
+        <v>179.74496257897493</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.51656791642549</v>
+        <v>176.15006332739543</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.70551248700133</v>
+        <v>177.94751295318522</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.89445705757706</v>
+        <v>179.74496257897493</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.13867877527397</v>
+        <v>172.55516407581595</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>197.00501135181938</v>
+        <v>161.77046632107746</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.19395592239513</v>
+        <v>163.5679159468672</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.57184506354668</v>
+        <v>167.16281519844671</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.76078963412246</v>
+        <v>168.96026482423645</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.57184506354668</v>
+        <v>167.16281519844671</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.19395592239513</v>
+        <v>163.5679159468672</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.19395592239513</v>
+        <v>163.5679159468672</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.38290049297089</v>
+        <v>165.36536557265694</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.57184506354668</v>
+        <v>167.16281519844671</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.62712221066781</v>
+        <v>158.17556706949793</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.3389631791799</v>
+        <v>143.97941272212319</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -5565,99 +5565,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>215.94022619095236</v>
+        <v>177.31909888325134</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.06494181367592</v>
+        <v>170.8523170619099</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.06494181367592</v>
+        <v>170.8523170619099</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.48430160220701</v>
+        <v>172.83897191146696</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.06494181367592</v>
+        <v>170.8523170619099</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.06494181367592</v>
+        <v>170.8523170619099</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.49514475137076</v>
+        <v>183.52281263728401</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>231.84204860794813</v>
+        <v>190.3768643182554</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.93597885311149</v>
+        <v>198.66548495570916</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.0972592760493</v>
+        <v>194.69217525659499</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>239.5166190645804</v>
+        <v>196.67883010615208</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.93597885311149</v>
+        <v>198.66548495570916</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>232.25853969898705</v>
+        <v>190.71886555748083</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.74238096780033</v>
+        <v>178.79893646013824</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.16174075633145</v>
+        <v>180.78559130969535</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.0004603333937</v>
+        <v>184.75890100880952</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>227.41982012192483</v>
+        <v>186.74555585836663</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.0004603333937</v>
+        <v>184.75890100880952</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.16174075633145</v>
+        <v>180.78559130969535</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.16174075633145</v>
+        <v>180.78559130969535</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>222.58110054486255</v>
+        <v>182.7722461592524</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.0004603333937</v>
+        <v>184.75890100880952</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>212.90366139073814</v>
+        <v>174.82562676102407</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.79569614540938</v>
+        <v>159.13514037708353</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5666,99 +5666,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.09162244938773</v>
+        <v>151.98779904278686</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.34137869743651</v>
+        <v>146.44484319592277</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.34137869743651</v>
+        <v>146.44484319592277</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.41511565903457</v>
+        <v>148.14769020982882</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.34137869743651</v>
+        <v>146.44484319592277</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.34137869743651</v>
+        <v>146.44484319592277</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.56726692974635</v>
+        <v>157.30526797481485</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.72175594966981</v>
+        <v>163.18016941564747</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.37369615980984</v>
+        <v>170.28470139060784</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.22622223661367</v>
+        <v>166.8790073627957</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.29995919821178</v>
+        <v>168.58185437670178</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.37369615980984</v>
+        <v>170.28470139060784</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.07874831341746</v>
+        <v>163.47331333498354</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>186.63632654382889</v>
+        <v>153.25623125154706</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.71006350542697</v>
+        <v>154.95907826545314</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.85753742862315</v>
+        <v>158.3647722932653</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.93127439022129</v>
+        <v>160.06761930717141</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.85753742862315</v>
+        <v>158.3647722932653</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.71006350542697</v>
+        <v>154.95907826545314</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.71006350542697</v>
+        <v>154.95907826545314</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>190.78380046702506</v>
+        <v>156.6619252793592</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.85753742862315</v>
+        <v>158.3647722932653</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>182.48885262063266</v>
+        <v>149.8505372237349</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.11059669606519</v>
+        <v>136.40154889464304</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -5767,99 +5767,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>226.22309410480727</v>
+        <v>185.76286549673949</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.50736358326449</v>
+        <v>181.06939914534635</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>234.13777069191224</v>
+        <v>192.26199419144041</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>242.88214616070758</v>
+        <v>199.44242928579138</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.38760495586115</v>
+        <v>203.96323122119475</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.92217235336997</v>
+        <v>206.04448868263552</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.31847016084362</v>
+        <v>199.80071629831323</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.11106577579085</v>
+        <v>187.31317152966864</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329967</v>
+        <v>189.39442899110944</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.24933536582603</v>
+        <v>195.63820137543172</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329967</v>
+        <v>189.39442899110944</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329967</v>
+        <v>189.39442899110944</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.18020057080841</v>
+        <v>191.47568645255015</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.04193098077326</v>
+        <v>183.15065660678712</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.02406262852412</v>
+        <v>166.7130042045637</v>
       </c>
     </row>
   </sheetData>
@@ -7181,99 +7181,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.35899344978586</v>
+        <v>206.40318388526612</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.19199576195078</v>
+        <v>198.87571298211734</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.19199576195078</v>
+        <v>198.87571298211734</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>245.00818175918275</v>
+        <v>201.18822127260705</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.19199576195078</v>
+        <v>198.87571298211734</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.19199576195078</v>
+        <v>198.87571298211734</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.15307854656913</v>
+        <v>213.62443799048935</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.8690512896751</v>
+        <v>221.60269920643483</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.6185997231986</v>
+        <v>231.25082904897366</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.9862277287346</v>
+        <v>226.62581246799417</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>278.80241372596657</v>
+        <v>228.93832075848388</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.6185997231986</v>
+        <v>231.25082904897366</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>270.35385573427067</v>
+        <v>222.00079588701468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.27292574811071</v>
+        <v>210.43825443456601</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.9052977425747</v>
+        <v>215.0632710155455</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>264.72148373980667</v>
+        <v>217.37577930603521</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.9052977425747</v>
+        <v>215.0632710155455</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.27292574811071</v>
+        <v>210.43825443456601</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.27292574811071</v>
+        <v>210.43825443456601</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>259.08911174534268</v>
+        <v>212.75076272505572</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>261.9052977425747</v>
+        <v>215.0632710155455</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.82436775641477</v>
+        <v>203.5007295630968</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>225.58229180947126</v>
+        <v>185.23667133840411</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -7282,99 +7282,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.79104377729652</v>
+        <v>196.08302469100281</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.08239597385324</v>
+        <v>188.93192733301146</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.08239597385324</v>
+        <v>188.93192733301146</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>232.75777267122359</v>
+        <v>191.12881020897669</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.08239597385324</v>
+        <v>188.93192733301146</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.08239597385324</v>
+        <v>188.93192733301146</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>247.14542461924069</v>
+        <v>202.94321609096485</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.37559872519131</v>
+        <v>210.52256424611306</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.53766973703864</v>
+        <v>219.68828759652496</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>262.18691634229788</v>
+        <v>215.29452184459447</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>264.86229303966826</v>
+        <v>217.49140472055967</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>267.53766973703864</v>
+        <v>219.68828759652496</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>256.83616294755711</v>
+        <v>210.90075609266395</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>240.78390276333479</v>
+        <v>197.71945883687246</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.45927946070515</v>
+        <v>199.91634171283769</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.81003285544594</v>
+        <v>204.31010746476818</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>251.48540955281632</v>
+        <v>206.50699034073344</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.81003285544594</v>
+        <v>204.31010746476818</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.45927946070515</v>
+        <v>199.91634171283769</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.45927946070515</v>
+        <v>199.91634171283769</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>246.13465615807553</v>
+        <v>202.11322458880295</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.81003285544594</v>
+        <v>204.31010746476818</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.43314936859403</v>
+        <v>193.32569308494195</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>214.30317721899766</v>
+        <v>175.97483777148389</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -7383,99 +7383,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>263.92694312227513</v>
+        <v>216.72334307952943</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.30159555004832</v>
+        <v>208.81949863122321</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.30159555004832</v>
+        <v>208.81949863122321</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>257.25859084714193</v>
+        <v>211.24763233623742</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.30159555004832</v>
+        <v>208.81949863122321</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>254.30159555004832</v>
+        <v>208.81949863122321</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>273.16073247389767</v>
+        <v>224.30565989001383</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>283.36250385415883</v>
+        <v>232.68283416675661</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.6995297093585</v>
+        <v>242.81337050142233</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>289.78553911517133</v>
+        <v>237.95710309139386</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>292.74253441226494</v>
+        <v>240.38523679640809</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>295.6995297093585</v>
+        <v>242.81337050142233</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>283.87154852098416</v>
+        <v>233.10083568136542</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.12957673842266</v>
+        <v>218.53203345128011</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.08657203551627</v>
+        <v>220.96016715629432</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.00056262970344</v>
+        <v>225.81643456632278</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>277.95755792679699</v>
+        <v>228.24456827133696</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.00056262970344</v>
+        <v>225.81643456632278</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.08657203551627</v>
+        <v>220.96016715629432</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.08657203551627</v>
+        <v>220.96016715629432</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>272.04356733260983</v>
+        <v>223.38830086130852</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>275.00056262970344</v>
+        <v>225.81643456632278</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>260.21558614423549</v>
+        <v>213.67576604125165</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>236.86140639994485</v>
+        <v>194.49850490532435</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -7484,99 +7484,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>226.22309410480727</v>
+        <v>185.76286549673949</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>220.50736358326449</v>
+        <v>181.06939914534635</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>234.13777069191227</v>
+        <v>192.26199419144044</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>242.88214616070755</v>
+        <v>199.44242928579135</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.38760495586115</v>
+        <v>203.96323122119475</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>250.92217235336992</v>
+        <v>206.04448868263549</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>243.31847016084356</v>
+        <v>199.8007162983132</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>228.11106577579085</v>
+        <v>187.31317152966864</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329961</v>
+        <v>189.39442899110941</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>238.249335365826</v>
+        <v>195.63820137543169</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329961</v>
+        <v>189.39442899110941</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329961</v>
+        <v>189.39442899110941</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>233.18020057080841</v>
+        <v>191.47568645255015</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>223.04193098077332</v>
+        <v>183.15065660678715</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>203.02406262852415</v>
+        <v>166.71300420456373</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -7585,99 +7585,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>276.49489279476444</v>
+        <v>227.04350227379277</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.41119533814589</v>
+        <v>218.76328428032906</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.41119533814589</v>
+        <v>218.76328428032906</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>269.50899993510103</v>
+        <v>221.30704339986778</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.41119533814589</v>
+        <v>218.76328428032906</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>266.41119533814589</v>
+        <v>218.76328428032906</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>286.16838640122609</v>
+        <v>234.9868817895383</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>296.85595641864262</v>
+        <v>243.76296912707832</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>309.78045969551852</v>
+        <v>254.37591195387103</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>303.58485050160812</v>
+        <v>249.28839371479361</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>306.68265509856326</v>
+        <v>251.83215283433231</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>309.78045969551852</v>
+        <v>254.37591195387103</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>297.38924130769772</v>
+        <v>244.2008754757162</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>278.80241372596663</v>
+        <v>228.93832075848391</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.90021832292177</v>
+        <v>231.4820798780226</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.09582751683217</v>
+        <v>236.56959811710004</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>291.19363211378732</v>
+        <v>239.11335723663873</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.09582751683217</v>
+        <v>236.56959811710004</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.90021832292177</v>
+        <v>231.4820798780226</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>281.90021832292177</v>
+        <v>231.4820798780226</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>284.99802291987697</v>
+        <v>234.02583899756132</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>288.09582751683217</v>
+        <v>236.56959811710004</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>272.60680453205623</v>
+        <v>223.8508025194065</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>248.14052099041839</v>
+        <v>203.76033847224454</v>
       </c>
     </row>
   </sheetData>
@@ -7778,99 +7778,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.65735827709747</v>
+        <v>168.87533226976316</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.1570874415961</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.1570874415961</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>200.4612396211495</v>
+        <v>164.60854467758759</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.1570874415961</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.1570874415961</v>
+        <v>162.71649243991416</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>212.85251881082928</v>
+        <v>174.78363108312763</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.80195105518868</v>
+        <v>181.31129935071939</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.41521795534427</v>
+        <v>189.20522376734203</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.80691359623739</v>
+        <v>185.42111929199521</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.11106577579085</v>
+        <v>187.31317152966864</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.41521795534427</v>
+        <v>189.20522376734203</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>221.19860923713051</v>
+        <v>181.63701481664839</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.37369615980984</v>
+        <v>170.28470139060784</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.67784833936329</v>
+        <v>172.17675362828126</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.28615269847018</v>
+        <v>175.96085810362811</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.59030487802363</v>
+        <v>177.85291034130154</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.28615269847018</v>
+        <v>175.96085810362811</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.67784833936329</v>
+        <v>172.17675362828126</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.67784833936329</v>
+        <v>172.17675362828126</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>211.98200051891672</v>
+        <v>174.06880586595469</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.28615269847018</v>
+        <v>175.96085810362811</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.76539180070296</v>
+        <v>166.50059691526101</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>184.56732966229464</v>
+        <v>151.55727654960336</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -7879,99 +7879,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>195.37449036324259</v>
+        <v>160.43156565627498</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.24923306951627</v>
+        <v>154.58066781791845</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.24923306951627</v>
+        <v>154.58066781791845</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>190.43817764009202</v>
+        <v>156.37811744370819</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.24923306951627</v>
+        <v>154.58066781791845</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.24923306951627</v>
+        <v>154.58066781791845</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>202.20989287028783</v>
+        <v>166.04444952897123</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>209.76185350242923</v>
+        <v>172.24573438318342</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.89445705757706</v>
+        <v>179.74496257897493</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>214.51656791642549</v>
+        <v>176.15006332739543</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>216.70551248700133</v>
+        <v>177.94751295318522</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>218.89445705757706</v>
+        <v>179.74496257897493</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.13867877527397</v>
+        <v>172.55516407581595</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>197.00501135181938</v>
+        <v>161.77046632107746</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.19395592239513</v>
+        <v>163.5679159468672</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.57184506354668</v>
+        <v>167.16281519844671</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.76078963412246</v>
+        <v>168.96026482423645</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.57184506354668</v>
+        <v>167.16281519844671</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.19395592239513</v>
+        <v>163.5679159468672</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.19395592239513</v>
+        <v>163.5679159468672</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>201.38290049297089</v>
+        <v>165.36536557265694</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.57184506354668</v>
+        <v>167.16281519844671</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.62712221066781</v>
+        <v>158.17556706949793</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>175.3389631791799</v>
+        <v>143.97941272212319</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -7980,99 +7980,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>215.94022619095236</v>
+        <v>177.31909888325134</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.06494181367592</v>
+        <v>170.8523170619099</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.06494181367592</v>
+        <v>170.8523170619099</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>210.48430160220701</v>
+        <v>172.83897191146696</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.06494181367592</v>
+        <v>170.8523170619099</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>208.06494181367592</v>
+        <v>170.8523170619099</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.49514475137076</v>
+        <v>183.52281263728401</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>231.84204860794813</v>
+        <v>190.3768643182554</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.93597885311149</v>
+        <v>198.66548495570916</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>237.0972592760493</v>
+        <v>194.69217525659499</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>239.5166190645804</v>
+        <v>196.67883010615208</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>241.93597885311149</v>
+        <v>198.66548495570916</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>232.25853969898705</v>
+        <v>190.71886555748083</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.74238096780033</v>
+        <v>178.79893646013824</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.16174075633145</v>
+        <v>180.78559130969535</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.0004603333937</v>
+        <v>184.75890100880952</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>227.41982012192483</v>
+        <v>186.74555585836663</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.0004603333937</v>
+        <v>184.75890100880952</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.16174075633145</v>
+        <v>180.78559130969535</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.16174075633145</v>
+        <v>180.78559130969535</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>222.58110054486255</v>
+        <v>182.7722461592524</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>225.0004603333937</v>
+        <v>184.75890100880952</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>212.90366139073814</v>
+        <v>174.82562676102407</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>193.79569614540938</v>
+        <v>159.13514037708353</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -8081,99 +8081,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>185.09162244938773</v>
+        <v>151.98779904278686</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.34137869743651</v>
+        <v>146.44484319592277</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.34137869743651</v>
+        <v>146.44484319592277</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>180.41511565903457</v>
+        <v>148.14769020982882</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.34137869743651</v>
+        <v>146.44484319592277</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>178.34137869743651</v>
+        <v>146.44484319592277</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>191.56726692974635</v>
+        <v>157.30526797481485</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>198.72175594966981</v>
+        <v>163.18016941564747</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.37369615980984</v>
+        <v>170.28470139060784</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.22622223661367</v>
+        <v>166.8790073627957</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>205.29995919821178</v>
+        <v>168.58185437670178</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>207.37369615980984</v>
+        <v>170.28470139060784</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>199.07874831341746</v>
+        <v>163.47331333498354</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>186.63632654382889</v>
+        <v>153.25623125154706</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.71006350542697</v>
+        <v>154.95907826545314</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.85753742862315</v>
+        <v>158.3647722932653</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>194.93127439022129</v>
+        <v>160.06761930717141</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.85753742862315</v>
+        <v>158.3647722932653</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.71006350542697</v>
+        <v>154.95907826545314</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>188.71006350542697</v>
+        <v>154.95907826545314</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>190.78380046702506</v>
+        <v>156.6619252793592</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>192.85753742862315</v>
+        <v>158.3647722932653</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>182.48885262063266</v>
+        <v>149.8505372237349</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>166.11059669606519</v>
+        <v>136.40154889464304</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -8182,99 +8182,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>226.22309410480727</v>
+        <v>185.76286549673949</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>220.50736358326449</v>
+        <v>181.06939914534635</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>217.97279618575573</v>
+        <v>178.98814168390561</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>234.13777069191224</v>
+        <v>192.26199419144041</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>242.88214616070758</v>
+        <v>199.44242928579138</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>248.38760495586115</v>
+        <v>203.96323122119475</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>250.92217235336997</v>
+        <v>206.04448868263552</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>253.45673975087874</v>
+        <v>208.12574614407629</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>243.31847016084362</v>
+        <v>199.80071629831323</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>228.11106577579085</v>
+        <v>187.31317152966864</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329967</v>
+        <v>189.39442899110944</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>238.24933536582603</v>
+        <v>195.63820137543172</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329967</v>
+        <v>189.39442899110944</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>230.64563317329967</v>
+        <v>189.39442899110944</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>233.18020057080841</v>
+        <v>191.47568645255015</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>235.7147679683172</v>
+        <v>193.55694391399092</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>223.04193098077326</v>
+        <v>183.15065660678712</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>203.02406262852412</v>
+        <v>166.7130042045637</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3916E00-C60B-4956-B243-5E61F6FDC21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229CB017-2C07-41A5-8C7A-506F24EC868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -3405,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3419,16 +3419,16 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F1" s="1">
         <v>0.1</v>
@@ -4677,7 +4677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E119D8D-D7FD-46DB-8300-FC3B5CEFAAC8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>

--- a/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1_3/Market Data/CS1_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229CB017-2C07-41A5-8C7A-506F24EC868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99489C63-20C5-4281-B302-17039993EF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -162,373 +162,325 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>178.51022176578198</v>
+            <v>33</v>
           </cell>
           <cell r="C2">
-            <v>170.09531756474857</v>
+            <v>25.9</v>
           </cell>
           <cell r="D2">
-            <v>166.56503738887642</v>
+            <v>25.8</v>
           </cell>
           <cell r="E2">
-            <v>161.7510189672326</v>
+            <v>25.8</v>
           </cell>
           <cell r="F2">
-            <v>163.35569177444719</v>
+            <v>25.6</v>
           </cell>
           <cell r="G2">
-            <v>170.26862222792772</v>
+            <v>25.6</v>
           </cell>
           <cell r="H2">
-            <v>184.75560833146122</v>
+            <v>24.83</v>
           </cell>
           <cell r="I2">
-            <v>191.65570140248403</v>
+            <v>24.83</v>
           </cell>
           <cell r="J2">
-            <v>200</v>
+            <v>24.83</v>
           </cell>
           <cell r="K2">
-            <v>189.62739497416479</v>
+            <v>24.5</v>
           </cell>
           <cell r="L2">
-            <v>185.32045315960079</v>
+            <v>24.5</v>
           </cell>
           <cell r="M2">
-            <v>168.31092140312595</v>
+            <v>24.83</v>
           </cell>
           <cell r="N2">
-            <v>163.65095157097468</v>
+            <v>25</v>
           </cell>
           <cell r="O2">
-            <v>139.86328187682534</v>
+            <v>25.6</v>
           </cell>
           <cell r="P2">
-            <v>145.51173015822073</v>
+            <v>25.43</v>
           </cell>
           <cell r="Q2">
-            <v>131.94903559164285</v>
+            <v>24</v>
           </cell>
           <cell r="R2">
-            <v>128.37382457716873</v>
+            <v>22.1</v>
           </cell>
           <cell r="S2">
-            <v>127.69344330690973</v>
+            <v>21.4</v>
           </cell>
           <cell r="T2">
-            <v>129.37514040887064</v>
+            <v>24.83</v>
           </cell>
           <cell r="U2">
-            <v>146.94309830225617</v>
+            <v>25.2</v>
           </cell>
           <cell r="V2">
-            <v>178.09942552713505</v>
+            <v>25.6</v>
           </cell>
           <cell r="W2">
-            <v>177.86193395166728</v>
+            <v>29.93</v>
           </cell>
           <cell r="X2">
-            <v>168.41362046278766</v>
+            <v>32.93</v>
           </cell>
           <cell r="Y2">
-            <v>160.20411438107772</v>
+            <v>29.9</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>169.58471067749286</v>
+            <v>31.35</v>
           </cell>
           <cell r="C3">
-            <v>161.59055168651113</v>
+            <v>27.68</v>
           </cell>
           <cell r="D3">
-            <v>158.2367855194326</v>
+            <v>26.73</v>
           </cell>
           <cell r="E3">
-            <v>153.66346801887096</v>
+            <v>26.51</v>
           </cell>
           <cell r="F3">
-            <v>155.18790718572484</v>
+            <v>26.54</v>
           </cell>
           <cell r="G3">
-            <v>161.75519111653134</v>
+            <v>27.59</v>
           </cell>
           <cell r="H3">
-            <v>175.51782791488816</v>
+            <v>33.799999999999997</v>
           </cell>
           <cell r="I3">
-            <v>182.07291633235982</v>
+            <v>38.19</v>
           </cell>
           <cell r="J3">
-            <v>190</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="K3">
-            <v>180.14602522545653</v>
+            <v>38.43</v>
           </cell>
           <cell r="L3">
-            <v>176.05443050162074</v>
+            <v>38.24</v>
           </cell>
           <cell r="M3">
-            <v>159.89537533296965</v>
+            <v>38</v>
           </cell>
           <cell r="N3">
-            <v>155.46840399242595</v>
+            <v>38.43</v>
           </cell>
           <cell r="O3">
-            <v>132.87011778298407</v>
+            <v>38.47</v>
           </cell>
           <cell r="P3">
-            <v>138.23614365030969</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="Q3">
-            <v>125.35158381206071</v>
+            <v>37.950000000000003</v>
           </cell>
           <cell r="R3">
-            <v>121.95513334831028</v>
+            <v>38.43</v>
           </cell>
           <cell r="S3">
-            <v>121.30877114156424</v>
+            <v>38.549999999999997</v>
           </cell>
           <cell r="T3">
-            <v>122.9063833884271</v>
+            <v>40.51</v>
           </cell>
           <cell r="U3">
-            <v>139.59594338714336</v>
+            <v>42.93</v>
           </cell>
           <cell r="V3">
-            <v>169.19445425077831</v>
+            <v>41.81</v>
           </cell>
           <cell r="W3">
-            <v>168.96883725408392</v>
+            <v>40.479999999999997</v>
           </cell>
           <cell r="X3">
-            <v>159.99293943964827</v>
+            <v>39.72</v>
           </cell>
           <cell r="Y3">
-            <v>152.19390866202383</v>
+            <v>37.950000000000003</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>187.43573285407109</v>
+            <v>33.159999999999997</v>
           </cell>
           <cell r="C4">
-            <v>178.600083442986</v>
+            <v>28.6</v>
           </cell>
           <cell r="D4">
-            <v>174.89328925832024</v>
+            <v>27</v>
           </cell>
           <cell r="E4">
-            <v>169.83856991559423</v>
+            <v>26.5</v>
           </cell>
           <cell r="F4">
-            <v>171.52347636316955</v>
+            <v>27.5</v>
           </cell>
           <cell r="G4">
-            <v>178.78205333932411</v>
+            <v>28.03</v>
           </cell>
           <cell r="H4">
-            <v>193.99338874803428</v>
+            <v>33</v>
           </cell>
           <cell r="I4">
-            <v>201.23848647260823</v>
+            <v>37.74</v>
           </cell>
           <cell r="J4">
-            <v>210</v>
+            <v>39.79</v>
           </cell>
           <cell r="K4">
-            <v>199.10876472287305</v>
+            <v>40.49</v>
           </cell>
           <cell r="L4">
-            <v>194.58647581758083</v>
+            <v>39.82</v>
           </cell>
           <cell r="M4">
-            <v>176.72646747328224</v>
+            <v>38.08</v>
           </cell>
           <cell r="N4">
-            <v>171.83349914952342</v>
+            <v>37.21</v>
           </cell>
           <cell r="O4">
-            <v>146.85644597066661</v>
+            <v>34.619999999999997</v>
           </cell>
           <cell r="P4">
-            <v>152.78731666613177</v>
+            <v>33.18</v>
           </cell>
           <cell r="Q4">
-            <v>138.546487371225</v>
+            <v>30</v>
           </cell>
           <cell r="R4">
-            <v>134.79251580602718</v>
+            <v>29</v>
           </cell>
           <cell r="S4">
-            <v>134.07811547225521</v>
+            <v>30.22</v>
           </cell>
           <cell r="T4">
-            <v>135.84389742931418</v>
+            <v>32.479999999999997</v>
           </cell>
           <cell r="U4">
-            <v>154.29025321736898</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="V4">
-            <v>187.0043968034918</v>
+            <v>41.7</v>
           </cell>
           <cell r="W4">
-            <v>186.75503064925064</v>
+            <v>43.82</v>
           </cell>
           <cell r="X4">
-            <v>176.83430148592706</v>
+            <v>42.23</v>
           </cell>
           <cell r="Y4">
-            <v>168.2143201001316</v>
+            <v>37.57</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>160.65919958920378</v>
+            <v>39.9</v>
           </cell>
           <cell r="C5">
-            <v>153.08578580827373</v>
+            <v>38.24</v>
           </cell>
           <cell r="D5">
-            <v>149.90853364998878</v>
+            <v>35.44</v>
           </cell>
           <cell r="E5">
-            <v>145.57591707050935</v>
+            <v>34.299999999999997</v>
           </cell>
           <cell r="F5">
-            <v>147.02012259700248</v>
+            <v>34.15</v>
           </cell>
           <cell r="G5">
-            <v>153.24176000513495</v>
+            <v>34.03</v>
           </cell>
           <cell r="H5">
-            <v>166.2800474983151</v>
+            <v>34.31</v>
           </cell>
           <cell r="I5">
-            <v>172.49013126223562</v>
+            <v>37.020000000000003</v>
           </cell>
           <cell r="J5">
-            <v>180</v>
+            <v>39.76</v>
           </cell>
           <cell r="K5">
-            <v>170.66465547674832</v>
+            <v>40.39</v>
           </cell>
           <cell r="L5">
-            <v>166.78840784364073</v>
+            <v>40.29</v>
           </cell>
           <cell r="M5">
-            <v>151.47982926281335</v>
+            <v>39.549999999999997</v>
           </cell>
           <cell r="N5">
-            <v>147.28585641387721</v>
+            <v>39.619999999999997</v>
           </cell>
           <cell r="O5">
-            <v>125.87695368914281</v>
+            <v>36.97</v>
           </cell>
           <cell r="P5">
-            <v>130.96055714239867</v>
+            <v>35.770000000000003</v>
           </cell>
           <cell r="Q5">
-            <v>118.75413203247857</v>
+            <v>34.5</v>
           </cell>
           <cell r="R5">
-            <v>115.53644211945186</v>
+            <v>34.4</v>
           </cell>
           <cell r="S5">
-            <v>114.92409897621876</v>
+            <v>35.24</v>
           </cell>
           <cell r="T5">
-            <v>116.43762636798357</v>
+            <v>40.619999999999997</v>
           </cell>
           <cell r="U5">
-            <v>132.24878847203055</v>
+            <v>51.02</v>
           </cell>
           <cell r="V5">
-            <v>160.28948297442156</v>
+            <v>51.05</v>
           </cell>
           <cell r="W5">
-            <v>160.07574055650056</v>
+            <v>50.04</v>
           </cell>
           <cell r="X5">
-            <v>151.5722584165089</v>
+            <v>46.51</v>
           </cell>
           <cell r="Y5">
-            <v>144.18370294296994</v>
+            <v>40.97</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="B6">
-            <v>196.3612439423602</v>
-          </cell>
-          <cell r="C6">
-            <v>187.10484932122344</v>
-          </cell>
-          <cell r="D6">
-            <v>183.22154112776408</v>
-          </cell>
-          <cell r="E6">
-            <v>177.92612086395587</v>
-          </cell>
-          <cell r="F6">
-            <v>179.69126095189193</v>
-          </cell>
-          <cell r="G6">
-            <v>187.29548445072052</v>
-          </cell>
-          <cell r="H6">
-            <v>203.23116916460737</v>
-          </cell>
-          <cell r="I6">
-            <v>210.82127154273243</v>
-          </cell>
-          <cell r="J6">
-            <v>220.00000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>208.59013447158128</v>
-          </cell>
-          <cell r="L6">
-            <v>203.85249847556088</v>
-          </cell>
-          <cell r="M6">
-            <v>185.14201354343857</v>
-          </cell>
-          <cell r="N6">
-            <v>180.01604672807215</v>
-          </cell>
-          <cell r="O6">
-            <v>153.84961006450789</v>
-          </cell>
-          <cell r="P6">
-            <v>160.06290317404282</v>
-          </cell>
-          <cell r="Q6">
-            <v>145.14393915080714</v>
-          </cell>
-          <cell r="R6">
-            <v>141.21120703488563</v>
-          </cell>
-          <cell r="S6">
-            <v>140.46278763760071</v>
-          </cell>
-          <cell r="T6">
-            <v>142.3126544497577</v>
-          </cell>
-          <cell r="U6">
-            <v>161.6374081324818</v>
-          </cell>
-          <cell r="V6">
-            <v>195.90936807984858</v>
-          </cell>
-          <cell r="W6">
-            <v>195.64812734683403</v>
-          </cell>
-          <cell r="X6">
-            <v>185.25498250906645</v>
-          </cell>
-          <cell r="Y6">
-            <v>176.22452581918552</v>
-          </cell>
+          <cell r="B6"/>
+          <cell r="C6"/>
+          <cell r="D6"/>
+          <cell r="E6"/>
+          <cell r="F6"/>
+          <cell r="G6"/>
+          <cell r="H6"/>
+          <cell r="I6"/>
+          <cell r="J6"/>
+          <cell r="K6"/>
+          <cell r="L6"/>
+          <cell r="M6"/>
+          <cell r="N6"/>
+          <cell r="O6"/>
+          <cell r="P6"/>
+          <cell r="Q6"/>
+          <cell r="R6"/>
+          <cell r="S6"/>
+          <cell r="T6"/>
+          <cell r="U6"/>
+          <cell r="V6"/>
+          <cell r="W6"/>
+          <cell r="X6"/>
+          <cell r="Y6"/>
         </row>
       </sheetData>
       <sheetData sheetId="2">
@@ -1650,745 +1602,527 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>178.51022176578198</v>
+            <v>31.35</v>
           </cell>
           <cell r="C2">
-            <v>170.09531756474857</v>
+            <v>27.68</v>
           </cell>
           <cell r="D2">
-            <v>166.56503738887642</v>
+            <v>26.73</v>
           </cell>
           <cell r="E2">
-            <v>161.7510189672326</v>
+            <v>26.51</v>
           </cell>
           <cell r="F2">
-            <v>163.35569177444719</v>
+            <v>26.54</v>
           </cell>
           <cell r="G2">
-            <v>170.26862222792772</v>
+            <v>27.59</v>
           </cell>
           <cell r="H2">
-            <v>184.75560833146122</v>
+            <v>33.799999999999997</v>
           </cell>
           <cell r="I2">
-            <v>191.65570140248403</v>
+            <v>38.19</v>
           </cell>
           <cell r="J2">
-            <v>200</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="K2">
-            <v>189.62739497416479</v>
+            <v>38.43</v>
           </cell>
           <cell r="L2">
-            <v>185.32045315960079</v>
+            <v>38.24</v>
           </cell>
           <cell r="M2">
-            <v>168.31092140312595</v>
+            <v>38</v>
           </cell>
           <cell r="N2">
-            <v>163.65095157097468</v>
+            <v>38.43</v>
           </cell>
           <cell r="O2">
-            <v>139.86328187682534</v>
+            <v>38.47</v>
           </cell>
           <cell r="P2">
-            <v>145.51173015822073</v>
+            <v>38.700000000000003</v>
           </cell>
           <cell r="Q2">
-            <v>131.94903559164285</v>
+            <v>37.950000000000003</v>
           </cell>
           <cell r="R2">
-            <v>128.37382457716873</v>
+            <v>38.43</v>
           </cell>
           <cell r="S2">
-            <v>127.69344330690973</v>
+            <v>38.549999999999997</v>
           </cell>
           <cell r="T2">
-            <v>129.37514040887064</v>
+            <v>40.51</v>
           </cell>
           <cell r="U2">
-            <v>146.94309830225617</v>
+            <v>42.93</v>
           </cell>
           <cell r="V2">
-            <v>178.09942552713505</v>
+            <v>41.81</v>
           </cell>
           <cell r="W2">
-            <v>177.86193395166728</v>
+            <v>40.479999999999997</v>
           </cell>
           <cell r="X2">
-            <v>168.41362046278766</v>
+            <v>39.72</v>
           </cell>
           <cell r="Y2">
-            <v>160.20411438107772</v>
+            <v>37.950000000000003</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>169.58471067749286</v>
+            <v>33.159999999999997</v>
           </cell>
           <cell r="C3">
-            <v>161.59055168651113</v>
+            <v>28.6</v>
           </cell>
           <cell r="D3">
-            <v>158.2367855194326</v>
+            <v>27</v>
           </cell>
           <cell r="E3">
-            <v>153.66346801887096</v>
+            <v>26.5</v>
           </cell>
           <cell r="F3">
-            <v>155.18790718572484</v>
+            <v>27.5</v>
           </cell>
           <cell r="G3">
-            <v>161.75519111653134</v>
+            <v>28.03</v>
           </cell>
           <cell r="H3">
-            <v>175.51782791488816</v>
+            <v>33</v>
           </cell>
           <cell r="I3">
-            <v>182.07291633235982</v>
+            <v>37.74</v>
           </cell>
           <cell r="J3">
-            <v>190</v>
+            <v>39.79</v>
           </cell>
           <cell r="K3">
-            <v>180.14602522545653</v>
+            <v>40.49</v>
           </cell>
           <cell r="L3">
-            <v>176.05443050162074</v>
+            <v>39.82</v>
           </cell>
           <cell r="M3">
-            <v>159.89537533296965</v>
+            <v>38.08</v>
           </cell>
           <cell r="N3">
-            <v>155.46840399242595</v>
+            <v>37.21</v>
           </cell>
           <cell r="O3">
-            <v>132.87011778298407</v>
+            <v>34.619999999999997</v>
           </cell>
           <cell r="P3">
-            <v>138.23614365030969</v>
+            <v>33.18</v>
           </cell>
           <cell r="Q3">
-            <v>125.35158381206071</v>
+            <v>30</v>
           </cell>
           <cell r="R3">
-            <v>121.95513334831028</v>
+            <v>29</v>
           </cell>
           <cell r="S3">
-            <v>121.30877114156424</v>
+            <v>30.22</v>
           </cell>
           <cell r="T3">
-            <v>122.9063833884271</v>
+            <v>32.479999999999997</v>
           </cell>
           <cell r="U3">
-            <v>139.59594338714336</v>
+            <v>36.200000000000003</v>
           </cell>
           <cell r="V3">
-            <v>169.19445425077831</v>
+            <v>41.7</v>
           </cell>
           <cell r="W3">
-            <v>168.96883725408392</v>
+            <v>43.82</v>
           </cell>
           <cell r="X3">
-            <v>159.99293943964827</v>
+            <v>42.23</v>
           </cell>
           <cell r="Y3">
-            <v>152.19390866202383</v>
+            <v>37.57</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>187.43573285407109</v>
+            <v>39.9</v>
           </cell>
           <cell r="C4">
-            <v>178.600083442986</v>
+            <v>38.24</v>
           </cell>
           <cell r="D4">
-            <v>174.89328925832024</v>
+            <v>35.44</v>
           </cell>
           <cell r="E4">
-            <v>169.83856991559423</v>
+            <v>34.299999999999997</v>
           </cell>
           <cell r="F4">
-            <v>171.52347636316955</v>
+            <v>34.15</v>
           </cell>
           <cell r="G4">
-            <v>178.78205333932411</v>
+            <v>34.03</v>
           </cell>
           <cell r="H4">
-            <v>193.99338874803428</v>
+            <v>34.31</v>
           </cell>
           <cell r="I4">
-            <v>201.23848647260823</v>
+            <v>37.020000000000003</v>
           </cell>
           <cell r="J4">
-            <v>210</v>
+            <v>39.76</v>
           </cell>
           <cell r="K4">
-            <v>199.10876472287305</v>
+            <v>40.39</v>
           </cell>
           <cell r="L4">
-            <v>194.58647581758083</v>
+            <v>40.29</v>
           </cell>
           <cell r="M4">
-            <v>176.72646747328224</v>
+            <v>39.549999999999997</v>
           </cell>
           <cell r="N4">
-            <v>171.83349914952342</v>
+            <v>39.619999999999997</v>
           </cell>
           <cell r="O4">
-            <v>146.85644597066661</v>
+            <v>36.97</v>
           </cell>
           <cell r="P4">
-            <v>152.78731666613177</v>
+            <v>35.770000000000003</v>
           </cell>
           <cell r="Q4">
-            <v>138.546487371225</v>
+            <v>34.5</v>
           </cell>
           <cell r="R4">
-            <v>134.79251580602718</v>
+            <v>34.4</v>
           </cell>
           <cell r="S4">
-            <v>134.07811547225521</v>
+            <v>35.24</v>
           </cell>
           <cell r="T4">
-            <v>135.84389742931418</v>
+            <v>40.619999999999997</v>
           </cell>
           <cell r="U4">
-            <v>154.29025321736898</v>
+            <v>51.02</v>
           </cell>
           <cell r="V4">
-            <v>187.0043968034918</v>
+            <v>51.05</v>
           </cell>
           <cell r="W4">
-            <v>186.75503064925064</v>
+            <v>50.04</v>
           </cell>
           <cell r="X4">
-            <v>176.83430148592706</v>
+            <v>46.51</v>
           </cell>
           <cell r="Y4">
-            <v>168.2143201001316</v>
+            <v>40.97</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="B5">
-            <v>160.65919958920378</v>
-          </cell>
-          <cell r="C5">
-            <v>153.08578580827373</v>
-          </cell>
-          <cell r="D5">
-            <v>149.90853364998878</v>
-          </cell>
-          <cell r="E5">
-            <v>145.57591707050935</v>
-          </cell>
-          <cell r="F5">
-            <v>147.02012259700248</v>
-          </cell>
-          <cell r="G5">
-            <v>153.24176000513495</v>
-          </cell>
-          <cell r="H5">
-            <v>166.2800474983151</v>
-          </cell>
-          <cell r="I5">
-            <v>172.49013126223562</v>
-          </cell>
-          <cell r="J5">
-            <v>180</v>
-          </cell>
-          <cell r="K5">
-            <v>170.66465547674832</v>
-          </cell>
-          <cell r="L5">
-            <v>166.78840784364073</v>
-          </cell>
-          <cell r="M5">
-            <v>151.47982926281335</v>
-          </cell>
-          <cell r="N5">
-            <v>147.28585641387721</v>
-          </cell>
-          <cell r="O5">
-            <v>125.87695368914281</v>
-          </cell>
-          <cell r="P5">
-            <v>130.96055714239867</v>
-          </cell>
-          <cell r="Q5">
-            <v>118.75413203247857</v>
-          </cell>
-          <cell r="R5">
-            <v>115.53644211945186</v>
-          </cell>
-          <cell r="S5">
-            <v>114.92409897621876</v>
-          </cell>
-          <cell r="T5">
-            <v>116.43762636798357</v>
-          </cell>
-          <cell r="U5">
-            <v>132.24878847203055</v>
-          </cell>
-          <cell r="V5">
-            <v>160.28948297442156</v>
-          </cell>
-          <cell r="W5">
-            <v>160.07574055650056</v>
-          </cell>
-          <cell r="X5">
-            <v>151.5722584165089</v>
-          </cell>
-          <cell r="Y5">
-            <v>144.18370294296994</v>
-          </cell>
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+          <cell r="I5"/>
+          <cell r="J5"/>
+          <cell r="K5"/>
+          <cell r="L5"/>
+          <cell r="M5"/>
+          <cell r="N5"/>
+          <cell r="O5"/>
+          <cell r="P5"/>
+          <cell r="Q5"/>
+          <cell r="R5"/>
+          <cell r="S5"/>
+          <cell r="T5"/>
+          <cell r="U5"/>
+          <cell r="V5"/>
+          <cell r="W5"/>
+          <cell r="X5"/>
+          <cell r="Y5"/>
         </row>
         <row r="6">
-          <cell r="B6">
-            <v>196.3612439423602</v>
-          </cell>
-          <cell r="C6">
-            <v>187.10484932122344</v>
-          </cell>
-          <cell r="D6">
-            <v>183.22154112776408</v>
-          </cell>
-          <cell r="E6">
-            <v>177.92612086395587</v>
-          </cell>
-          <cell r="F6">
-            <v>179.69126095189193</v>
-          </cell>
-          <cell r="G6">
-            <v>187.29548445072052</v>
-          </cell>
-          <cell r="H6">
-            <v>203.23116916460737</v>
-          </cell>
-          <cell r="I6">
-            <v>210.82127154273243</v>
-          </cell>
-          <cell r="J6">
-            <v>220.00000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>208.59013447158128</v>
-          </cell>
-          <cell r="L6">
-            <v>203.85249847556088</v>
-          </cell>
-          <cell r="M6">
-            <v>185.14201354343857</v>
-          </cell>
-          <cell r="N6">
-            <v>180.01604672807215</v>
-          </cell>
-          <cell r="O6">
-            <v>153.84961006450789</v>
-          </cell>
-          <cell r="P6">
-            <v>160.06290317404282</v>
-          </cell>
-          <cell r="Q6">
-            <v>145.14393915080714</v>
-          </cell>
-          <cell r="R6">
-            <v>141.21120703488563</v>
-          </cell>
-          <cell r="S6">
-            <v>140.46278763760071</v>
-          </cell>
-          <cell r="T6">
-            <v>142.3126544497577</v>
-          </cell>
-          <cell r="U6">
-            <v>161.6374081324818</v>
-          </cell>
-          <cell r="V6">
-            <v>195.90936807984858</v>
-          </cell>
-          <cell r="W6">
-            <v>195.64812734683403</v>
-          </cell>
-          <cell r="X6">
-            <v>185.25498250906645</v>
-          </cell>
-          <cell r="Y6">
-            <v>176.22452581918552</v>
-          </cell>
+          <cell r="B6"/>
+          <cell r="C6"/>
+          <cell r="D6"/>
+          <cell r="E6"/>
+          <cell r="F6"/>
+          <cell r="G6"/>
+          <cell r="H6"/>
+          <cell r="I6"/>
+          <cell r="J6"/>
+          <cell r="K6"/>
+          <cell r="L6"/>
+          <cell r="M6"/>
+          <cell r="N6"/>
+          <cell r="O6"/>
+          <cell r="P6"/>
+          <cell r="Q6"/>
+          <cell r="R6"/>
+          <cell r="S6"/>
+          <cell r="T6"/>
+          <cell r="U6"/>
+          <cell r="V6"/>
+          <cell r="W6"/>
+          <cell r="X6"/>
+          <cell r="Y6"/>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>35.702044353156396</v>
+            <v>13.5</v>
           </cell>
           <cell r="C2">
-            <v>35.702044353156396</v>
+            <v>14.88</v>
           </cell>
           <cell r="D2">
-            <v>36</v>
+            <v>8.92</v>
           </cell>
           <cell r="E2">
-            <v>36.4</v>
+            <v>8.93</v>
           </cell>
           <cell r="F2">
-            <v>35.702044353156396</v>
+            <v>8.93</v>
           </cell>
           <cell r="G2">
-            <v>40</v>
+            <v>8.8800000000000008</v>
           </cell>
           <cell r="H2">
-            <v>36.4</v>
+            <v>12.54</v>
           </cell>
           <cell r="I2">
-            <v>35.6</v>
+            <v>10.18</v>
           </cell>
           <cell r="J2">
-            <v>34.4</v>
+            <v>10.37</v>
           </cell>
           <cell r="K2">
-            <v>33.6</v>
+            <v>9.5</v>
           </cell>
           <cell r="L2">
-            <v>32.799999999999997</v>
+            <v>7.29</v>
           </cell>
           <cell r="M2">
-            <v>32</v>
+            <v>7.76</v>
           </cell>
           <cell r="N2">
-            <v>32.400000000000006</v>
+            <v>8.52</v>
           </cell>
           <cell r="O2">
-            <v>32.799999999999997</v>
+            <v>7.91</v>
           </cell>
           <cell r="P2">
-            <v>33.199999999999996</v>
+            <v>7.86</v>
           </cell>
           <cell r="Q2">
-            <v>33.6</v>
+            <v>7.35</v>
           </cell>
           <cell r="R2">
-            <v>33.199999999999996</v>
+            <v>9.0500000000000007</v>
           </cell>
           <cell r="S2">
-            <v>33.6</v>
+            <v>7.44</v>
           </cell>
           <cell r="T2">
-            <v>33.199999999999996</v>
+            <v>4.84</v>
           </cell>
           <cell r="U2">
-            <v>33.6</v>
+            <v>4.2699999999999996</v>
           </cell>
           <cell r="V2">
-            <v>33.199999999999996</v>
+            <v>4.2699999999999996</v>
           </cell>
           <cell r="W2">
-            <v>32.799999999999997</v>
+            <v>4.9000000000000004</v>
           </cell>
           <cell r="X2">
-            <v>34</v>
+            <v>8.4</v>
           </cell>
           <cell r="Y2">
-            <v>35.200000000000003</v>
+            <v>9.5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>33.916942135498573</v>
+            <v>10.64</v>
           </cell>
           <cell r="C3">
-            <v>33.916942135498573</v>
+            <v>9.02</v>
           </cell>
           <cell r="D3">
-            <v>34.199999999999996</v>
+            <v>5.51</v>
           </cell>
           <cell r="E3">
-            <v>34.58</v>
+            <v>5.7</v>
           </cell>
           <cell r="F3">
-            <v>33.916942135498573</v>
+            <v>5.68</v>
           </cell>
           <cell r="G3">
-            <v>38</v>
+            <v>5.7</v>
           </cell>
           <cell r="H3">
-            <v>34.58</v>
+            <v>11.33</v>
           </cell>
           <cell r="I3">
-            <v>33.82</v>
+            <v>5.98</v>
           </cell>
           <cell r="J3">
-            <v>32.68</v>
+            <v>8.57</v>
           </cell>
           <cell r="K3">
-            <v>31.919999999999998</v>
+            <v>4.71</v>
           </cell>
           <cell r="L3">
-            <v>31.159999999999997</v>
+            <v>9.1</v>
           </cell>
           <cell r="M3">
-            <v>30.4</v>
+            <v>7.08</v>
           </cell>
           <cell r="N3">
-            <v>30.780000000000005</v>
+            <v>7.32</v>
           </cell>
           <cell r="O3">
-            <v>31.159999999999997</v>
+            <v>5.7</v>
           </cell>
           <cell r="P3">
-            <v>31.539999999999996</v>
+            <v>5.7</v>
           </cell>
           <cell r="Q3">
-            <v>31.919999999999998</v>
+            <v>4.84</v>
           </cell>
           <cell r="R3">
-            <v>31.539999999999996</v>
+            <v>4.88</v>
           </cell>
           <cell r="S3">
-            <v>31.919999999999998</v>
+            <v>4.9400000000000004</v>
           </cell>
           <cell r="T3">
-            <v>31.539999999999996</v>
+            <v>5.68</v>
           </cell>
           <cell r="U3">
-            <v>31.919999999999998</v>
+            <v>4.75</v>
           </cell>
           <cell r="V3">
-            <v>31.539999999999996</v>
+            <v>3.85</v>
           </cell>
           <cell r="W3">
-            <v>31.159999999999997</v>
+            <v>5.6</v>
           </cell>
           <cell r="X3">
-            <v>32.299999999999997</v>
+            <v>6.65</v>
           </cell>
           <cell r="Y3">
-            <v>33.44</v>
+            <v>9.86</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>37.487146570814218</v>
+            <v>6.17</v>
           </cell>
           <cell r="C4">
-            <v>37.487146570814218</v>
+            <v>7.51</v>
           </cell>
           <cell r="D4">
-            <v>37.800000000000004</v>
+            <v>7.6</v>
           </cell>
           <cell r="E4">
-            <v>38.22</v>
+            <v>7.89</v>
           </cell>
           <cell r="F4">
-            <v>37.487146570814218</v>
+            <v>7.98</v>
           </cell>
           <cell r="G4">
-            <v>42</v>
+            <v>8.44</v>
           </cell>
           <cell r="H4">
-            <v>38.22</v>
+            <v>7.6</v>
           </cell>
           <cell r="I4">
-            <v>37.380000000000003</v>
+            <v>7.34</v>
           </cell>
           <cell r="J4">
-            <v>36.119999999999997</v>
+            <v>6.54</v>
           </cell>
           <cell r="K4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="L4">
-            <v>34.44</v>
+            <v>8.44</v>
           </cell>
           <cell r="M4">
-            <v>33.6</v>
+            <v>6.49</v>
           </cell>
           <cell r="N4">
-            <v>34.02000000000001</v>
+            <v>6.44</v>
           </cell>
           <cell r="O4">
-            <v>34.44</v>
+            <v>6.54</v>
           </cell>
           <cell r="P4">
-            <v>34.86</v>
+            <v>7.6</v>
           </cell>
           <cell r="Q4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="R4">
-            <v>34.86</v>
+            <v>7.6</v>
           </cell>
           <cell r="S4">
-            <v>35.28</v>
+            <v>7.6</v>
           </cell>
           <cell r="T4">
-            <v>34.86</v>
+            <v>5.78</v>
           </cell>
           <cell r="U4">
-            <v>35.28</v>
+            <v>1.5</v>
           </cell>
           <cell r="V4">
-            <v>34.86</v>
+            <v>3.8</v>
           </cell>
           <cell r="W4">
-            <v>34.44</v>
+            <v>4.18</v>
           </cell>
           <cell r="X4">
-            <v>35.700000000000003</v>
+            <v>4.28</v>
           </cell>
           <cell r="Y4">
-            <v>36.960000000000008</v>
+            <v>6.54</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="B5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="C5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="D5">
-            <v>32.4</v>
-          </cell>
-          <cell r="E5">
-            <v>32.76</v>
-          </cell>
-          <cell r="F5">
-            <v>32.131839917840757</v>
-          </cell>
-          <cell r="G5">
-            <v>36</v>
-          </cell>
-          <cell r="H5">
-            <v>32.76</v>
-          </cell>
-          <cell r="I5">
-            <v>32.04</v>
-          </cell>
-          <cell r="J5">
-            <v>30.96</v>
-          </cell>
-          <cell r="K5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="L5">
-            <v>29.52</v>
-          </cell>
-          <cell r="M5">
-            <v>28.8</v>
-          </cell>
-          <cell r="N5">
-            <v>29.160000000000007</v>
-          </cell>
-          <cell r="O5">
-            <v>29.52</v>
-          </cell>
-          <cell r="P5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="Q5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="R5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="S5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="T5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="U5">
-            <v>30.240000000000002</v>
-          </cell>
-          <cell r="V5">
-            <v>29.879999999999995</v>
-          </cell>
-          <cell r="W5">
-            <v>29.52</v>
-          </cell>
-          <cell r="X5">
-            <v>30.6</v>
-          </cell>
-          <cell r="Y5">
-            <v>31.680000000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="C6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="D6">
-            <v>39.6</v>
-          </cell>
-          <cell r="E6">
-            <v>40.04</v>
-          </cell>
-          <cell r="F6">
-            <v>39.272248788472041</v>
-          </cell>
-          <cell r="G6">
-            <v>44</v>
-          </cell>
-          <cell r="H6">
-            <v>40.04</v>
-          </cell>
-          <cell r="I6">
-            <v>39.160000000000004</v>
-          </cell>
-          <cell r="J6">
-            <v>37.840000000000003</v>
-          </cell>
-          <cell r="K6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="L6">
-            <v>36.08</v>
-          </cell>
-          <cell r="M6">
-            <v>35.200000000000003</v>
-          </cell>
-          <cell r="N6">
-            <v>35.640000000000008</v>
-          </cell>
-          <cell r="O6">
-            <v>36.08</v>
-          </cell>
-          <cell r="P6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="Q6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="R6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="S6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="T6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="U6">
-            <v>36.960000000000008</v>
-          </cell>
-          <cell r="V6">
-            <v>36.519999999999996</v>
-          </cell>
-          <cell r="W6">
-            <v>36.08</v>
-          </cell>
-          <cell r="X6">
-            <v>37.400000000000006</v>
-          </cell>
-          <cell r="Y6">
-            <v>38.720000000000006</v>
-          </cell>
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+          <cell r="I5"/>
+          <cell r="J5"/>
+          <cell r="K5"/>
+          <cell r="L5"/>
+          <cell r="M5"/>
+          <cell r="N5"/>
+          <cell r="O5"/>
+          <cell r="P5"/>
+          <cell r="Q5"/>
+          <cell r="R5"/>
+          <cell r="S5"/>
+          <cell r="T5"/>
+          <cell r="U5"/>
+          <cell r="V5"/>
+          <cell r="W5"/>
+          <cell r="X5"/>
+          <cell r="Y5"/>
         </row>
       </sheetData>
       <sheetData sheetId="7">
@@ -3406,23 +3140,23 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.15</v>
@@ -3438,7 +3172,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3460,9 +3194,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3539,509 +3273,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.78288031312678</v>
+        <v>31.386634305370475</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.77937968062491</v>
+        <v>24.633752379063491</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.42169444197043</v>
+        <v>24.538641366016918</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.84303275289616</v>
+        <v>24.538641366016918</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.3692533159209</v>
+        <v>24.348419339923765</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.94421150143157</v>
+        <v>24.348419339923765</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.72293074441916</v>
+        <v>23.616064539465118</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.28567916542562</v>
+        <v>23.616064539465118</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.2220260931544</v>
+        <v>23.616064539465118</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.35653637376234</v>
+        <v>23.302198196411414</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.26016038260389</v>
+        <v>23.302198196411414</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.08222241454141</v>
+        <v>23.616064539465118</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.65007789951747</v>
+        <v>23.7777532616443</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.02538427323839</v>
+        <v>24.348419339923765</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.39768065508554</v>
+        <v>24.18673061774458</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.49806445640023</v>
+        <v>22.826643131178528</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>122.09764504198108</v>
+        <v>21.019533883293562</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.45052752325857</v>
+        <v>20.35375679196752</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>123.05000667330852</v>
+        <v>23.616064539465118</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.75906939730362</v>
+        <v>23.967975287737453</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.39216784899247</v>
+        <v>24.348419339923765</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.16628720566479</v>
+        <v>28.466726204840555</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.17990053057497</v>
+        <v>31.320056596237873</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.37175613014028</v>
+        <v>28.43819290092658</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.29373629747045</v>
+        <v>29.817302590101953</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.69041069659369</v>
+        <v>26.326728411292567</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.50060971987193</v>
+        <v>25.423173787350084</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.15088111525134</v>
+        <v>25.213929558647617</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.60079065012485</v>
+        <v>25.242462862561588</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.84700092636001</v>
+        <v>26.241128499550648</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.9367842071982</v>
+        <v>32.14752240974309</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.17139520715435</v>
+        <v>36.322895882487828</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.71092478849667</v>
+        <v>36.807962049025377</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.33870955507422</v>
+        <v>36.551162313799615</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.44715236347369</v>
+        <v>36.370451389011123</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.07811129381435</v>
+        <v>36.142184957699335</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.86757400454158</v>
+        <v>36.551162313799615</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.37411505957647</v>
+        <v>36.58920671901825</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.47779662233125</v>
+        <v>36.807962049025377</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.22316123358021</v>
+        <v>36.094629451176047</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.99276278988201</v>
+        <v>36.551162313799615</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.37800114709563</v>
+        <v>36.665295529455506</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>116.89750633964309</v>
+        <v>38.529471385168421</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.77111592743844</v>
+        <v>40.83115790089559</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.92255945654284</v>
+        <v>39.765914554773929</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.70797284538156</v>
+        <v>38.500938081254446</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.17090550404623</v>
+        <v>37.778094382100463</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.75316832363328</v>
+        <v>36.094629451176047</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.27202432878315</v>
+        <v>31.538811926244996</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.86834866465617</v>
+        <v>27.20174973132108</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.34277916406896</v>
+        <v>25.679973522575843</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.53518439054096</v>
+        <v>25.204418457342957</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.13771598171695</v>
+        <v>26.155528587808728</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.04142207650315</v>
+        <v>26.659616956955588</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.50907728164009</v>
+        <v>31.386634305370475</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.39996312369689</v>
+        <v>35.894896323778234</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.73312739781213</v>
+        <v>37.844672091233065</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>189.37436319245049</v>
+        <v>38.510449182559107</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.07316840173408</v>
+        <v>37.873205395147039</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.08633353526847</v>
+        <v>36.218273768136598</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.43258179449333</v>
+        <v>35.390807954631377</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.67665348690031</v>
+        <v>32.927432716725022</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.31756468783982</v>
+        <v>31.557834128854314</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.77296767922024</v>
+        <v>28.53330391397316</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>128.20252729408014</v>
+        <v>27.582193783507389</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>127.52305389942148</v>
+        <v>28.742548142675627</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>129.20250700697395</v>
+        <v>30.892057037528271</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.74702286716882</v>
+        <v>34.430186722860945</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.86177624144207</v>
+        <v>39.661292440422692</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.62460156594801</v>
+        <v>41.677645917010125</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.18889555710373</v>
+        <v>40.165380809569548</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.99034393664729</v>
+        <v>35.733207601599055</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.80459228181411</v>
+        <v>37.949294205584302</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.60144171256246</v>
+        <v>36.370451389011123</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>142.5795249977734</v>
+        <v>33.707343023706954</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.45872947760654</v>
+        <v>32.623077474975979</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.83232798432883</v>
+        <v>32.480410955406114</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.74979035128842</v>
+        <v>32.366277739750224</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.15063766997724</v>
+        <v>32.632588576280639</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.05711124888305</v>
+        <v>35.210097029842885</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.19982348383897</v>
+        <v>37.81613878731909</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.32088273638612</v>
+        <v>38.41533816951253</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.63414434434353</v>
+        <v>38.320227156465954</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.07400017308728</v>
+        <v>37.616405659921277</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.08507010956572</v>
+        <v>37.682983369053886</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.72284584591455</v>
+        <v>35.162541523319589</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>124.55791258957699</v>
+        <v>34.021209366760665</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>112.9482580107602</v>
+        <v>32.813299501069132</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>109.88788053778298</v>
+        <v>32.718188488022555</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>109.30547477093272</v>
+        <v>33.517120997613809</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>110.74500600597766</v>
+        <v>38.634093499519658</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.78316245757325</v>
+        <v>48.525638856363692</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.45295106409321</v>
+        <v>48.554172160277659</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.24965848509831</v>
+        <v>47.593550928507227</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.16191047751749</v>
+        <v>44.236132167963049</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.13458051712627</v>
+        <v>38.966982045182675</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.76116834443948</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.95731764868742</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.26386388616751</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.22733602818579</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.906178647513</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.13863265157477</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>193.29522381886107</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200.51424708196819</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.24422870246985</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>198.39219001113858</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>193.8861764208643</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.09044465599558</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.21508568946922</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.32792270056223</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.2374487205941</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.04787090204024</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>134.3074095461792</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.59558027558444</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>135.35500734063936</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.734976337034</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.33138463389173</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.08291592623129</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.1978905836325</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.60893174315433</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4058,9 +3792,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4137,7 +3871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4238,7 +3972,7 @@
         <v>45.058975955711773</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4339,7 +4073,7 @@
         <v>42.806027157926181</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4440,7 +4174,7 @@
         <v>47.311924753497365</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4541,7 +4275,7 @@
         <v>40.553078360140596</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4642,7 +4376,7 @@
         <v>49.564873551282957</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4681,9 +4415,9 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4861,7 +4595,7 @@
         <v>185.23667133840411</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4962,7 +4696,7 @@
         <v>175.97483777148389</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5063,7 +4797,7 @@
         <v>194.49850490532435</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5164,7 +4898,7 @@
         <v>166.71300420456373</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5278,9 +5012,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5357,7 +5091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5458,7 +5192,7 @@
         <v>151.55727654960336</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5559,7 +5293,7 @@
         <v>143.97941272212319</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5660,7 +5394,7 @@
         <v>159.13514037708353</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5761,7 +5495,7 @@
         <v>136.40154889464304</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5875,9 +5609,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5954,509 +5688,509 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.78288031312678</v>
+        <v>29.817302590101953</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.77937968062491</v>
+        <v>26.326728411292567</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.42169444197043</v>
+        <v>25.423173787350084</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.84303275289616</v>
+        <v>25.213929558647617</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.3692533159209</v>
+        <v>25.242462862561588</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.94421150143157</v>
+        <v>26.241128499550648</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>175.72293074441916</v>
+        <v>32.14752240974309</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>182.28567916542562</v>
+        <v>36.322895882487828</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>190.2220260931544</v>
+        <v>36.807962049025377</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.35653637376234</v>
+        <v>36.551162313799615</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.26016038260389</v>
+        <v>36.370451389011123</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.08222241454141</v>
+        <v>36.142184957699335</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>155.65007789951747</v>
+        <v>36.551162313799615</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.02538427323839</v>
+        <v>36.58920671901825</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.39768065508554</v>
+        <v>36.807962049025377</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.49806445640023</v>
+        <v>36.094629451176047</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>122.09764504198108</v>
+        <v>36.551162313799615</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>121.45052752325857</v>
+        <v>36.665295529455506</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>123.05000667330852</v>
+        <v>38.529471385168421</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.75906939730362</v>
+        <v>40.83115790089559</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.39216784899247</v>
+        <v>39.765914554773929</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.16628720566479</v>
+        <v>38.500938081254446</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.17990053057497</v>
+        <v>37.778094382100463</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.37175613014028</v>
+        <v>36.094629451176047</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.29373629747045</v>
+        <v>31.538811926244996</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.69041069659369</v>
+        <v>27.20174973132108</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>150.50060971987193</v>
+        <v>25.679973522575843</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.15088111525134</v>
+        <v>25.204418457342957</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.60079065012485</v>
+        <v>26.155528587808728</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.84700092636001</v>
+        <v>26.659616956955588</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.9367842071982</v>
+        <v>31.386634305370475</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>173.17139520715435</v>
+        <v>35.894896323778234</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>180.71092478849667</v>
+        <v>37.844672091233065</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.33870955507422</v>
+        <v>38.510449182559107</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.44715236347369</v>
+        <v>37.873205395147039</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.07811129381435</v>
+        <v>36.218273768136598</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>147.86757400454158</v>
+        <v>35.390807954631377</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>126.37411505957647</v>
+        <v>32.927432716725022</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.47779662233125</v>
+        <v>31.557834128854314</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.22316123358021</v>
+        <v>28.53330391397316</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.99276278988201</v>
+        <v>27.582193783507389</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>115.37800114709563</v>
+        <v>28.742548142675627</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>116.89750633964309</v>
+        <v>30.892057037528271</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>132.77111592743844</v>
+        <v>34.430186722860945</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.92255945654284</v>
+        <v>39.661292440422692</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>160.70797284538156</v>
+        <v>41.677645917010125</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.17090550404623</v>
+        <v>40.165380809569548</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.75316832363328</v>
+        <v>35.733207601599055</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.27202432878315</v>
+        <v>37.949294205584302</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.86834866465617</v>
+        <v>36.370451389011123</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>166.34277916406896</v>
+        <v>33.707343023706954</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>161.53518439054096</v>
+        <v>32.623077474975979</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.13771598171695</v>
+        <v>32.480410955406114</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.04142207650315</v>
+        <v>32.366277739750224</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>184.50907728164009</v>
+        <v>32.632588576280639</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>191.39996312369689</v>
+        <v>35.210097029842885</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>199.73312739781213</v>
+        <v>37.81613878731909</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>189.37436319245049</v>
+        <v>38.41533816951253</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>185.07316840173408</v>
+        <v>38.320227156465954</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.08633353526847</v>
+        <v>37.616405659921277</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>163.43258179449333</v>
+        <v>37.682983369053886</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.67665348690031</v>
+        <v>35.162541523319589</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.31756468783982</v>
+        <v>34.021209366760665</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>131.77296767922024</v>
+        <v>32.813299501069132</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>128.20252729408014</v>
+        <v>32.718188488022555</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>127.52305389942148</v>
+        <v>33.517120997613809</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>129.20250700697395</v>
+        <v>38.634093499519658</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.74702286716882</v>
+        <v>48.525638856363692</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.86177624144207</v>
+        <v>48.554172160277659</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.62460156594801</v>
+        <v>47.593550928507227</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>168.18889555710373</v>
+        <v>44.236132167963049</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>159.99034393664729</v>
+        <v>38.966982045182675</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.80459228181411</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.60144171256246</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>142.5795249977734</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.45872947760654</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>139.83232798432883</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>145.74979035128842</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.15063766997724</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>164.05711124888305</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.19982348383897</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>162.32088273638612</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>158.63414434434353</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.07400017308728</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>140.08507010956572</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>119.72284584591455</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>124.55791258957699</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>112.9482580107602</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>109.88788053778298</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>109.30547477093272</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>110.74500600597766</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>125.78316245757325</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.45295106409321</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.24965848509831</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>144.16191047751749</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>137.13458051712627</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.76116834443948</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>177.95731764868742</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>174.26386388616751</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>169.22733602818579</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>170.906178647513</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>178.13863265157477</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>193.29522381886107</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>200.51424708196819</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>209.24422870246985</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>198.39219001113858</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>193.8861764208643</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.09044465599558</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>171.21508568946922</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>146.32792270056223</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>152.2374487205941</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>138.04787090204024</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>134.3074095461792</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>133.59558027558444</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>135.35500734063936</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>153.734976337034</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.33138463389173</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>186.08291592623129</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>176.1978905836325</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>167.60893174315433</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6473,9 +6207,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6552,512 +6286,512 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.701635172688327</v>
+        <v>17.28114134665082</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.701635172688327</v>
+        <v>19.047658017641794</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.083043591068858</v>
+        <v>11.418354134231505</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.595077408747393</v>
+        <v>11.431154979673469</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.701635172688327</v>
+        <v>11.431154979673469</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.203381767854282</v>
+        <v>11.367150752463653</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.595077408747393</v>
+        <v>16.052260184222316</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.571009773390315</v>
+        <v>13.031260659918916</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.034908320354681</v>
+        <v>13.274476723316223</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.010840684997603</v>
+        <v>12.160803169865392</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.986773049640512</v>
+        <v>9.3318163271914436</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.962705414283427</v>
+        <v>9.9334560629637298</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.474739231961976</v>
+        <v>10.906320316552963</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.986773049640512</v>
+        <v>10.125468744593185</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.498806867319047</v>
+        <v>10.061464517383367</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.010840684997603</v>
+        <v>9.4086213998432235</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.498806867319047</v>
+        <v>11.584765124977032</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.010840684997603</v>
+        <v>9.523829008820897</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.498806867319047</v>
+        <v>6.1956091939103679</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.010840684997603</v>
+        <v>5.4659610037184443</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.498806867319047</v>
+        <v>5.4659610037184443</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.986773049640512</v>
+        <v>6.2724142665621505</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.522874502676139</v>
+        <v>10.752710171249401</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.058975955711773</v>
+        <v>12.160803169865392</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.416553414053908</v>
+        <v>13.62009955024924</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.416553414053908</v>
+        <v>11.546362588651141</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.77889141151541</v>
+        <v>7.0532658385219271</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.265323538310028</v>
+        <v>7.2964819019192353</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.416553414053908</v>
+        <v>7.2708802110353075</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.64321267946157</v>
+        <v>7.2964819019192353</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.265323538310028</v>
+        <v>14.503357885744727</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.292459284720799</v>
+        <v>7.654905574294216</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.833162904336952</v>
+        <v>10.97032454376278</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.860298650747715</v>
+        <v>6.0291982031648415</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.887434397158479</v>
+        <v>11.648769352186848</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.91457014356925</v>
+        <v>9.0629985729102085</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.401002270363875</v>
+        <v>9.3702188635173336</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.887434397158479</v>
+        <v>7.2964819019192353</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.373866523953097</v>
+        <v>7.2964819019192353</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.860298650747715</v>
+        <v>6.1956091939103679</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.373866523953097</v>
+        <v>6.2468125756782227</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.860298650747715</v>
+        <v>6.3236176483300044</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.373866523953097</v>
+        <v>7.2708802110353075</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.860298650747715</v>
+        <v>6.0804015849326962</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.373866523953097</v>
+        <v>4.928325495155975</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.887434397158479</v>
+        <v>7.1684734474995988</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.346730777542334</v>
+        <v>8.5125622189057744</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>42.806027157926181</v>
+        <v>12.621633605776081</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.986716931322746</v>
+        <v>7.8981216376915233</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.986716931322746</v>
+        <v>9.6134349269146409</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.387195770622306</v>
+        <v>9.7286425358923125</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.924831279184765</v>
+        <v>10.099867053709257</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.986716931322746</v>
+        <v>10.215074662686931</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>53.763550856247001</v>
+        <v>10.803913553017253</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.924831279184765</v>
+        <v>9.7286425358923125</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.849560262059832</v>
+        <v>9.3958205544012614</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.236653736372418</v>
+        <v>8.3717529190441748</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.161382719247477</v>
+        <v>9.7286425358923125</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.086111702122537</v>
+        <v>10.803913553017253</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.010840684997603</v>
+        <v>8.307748691834357</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>43.548476193560084</v>
+        <v>8.243744464624541</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.086111702122537</v>
+        <v>8.3717529190441748</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.623747210685011</v>
+        <v>9.7286425358923125</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.161382719247477</v>
+        <v>9.7286425358923125</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.623747210685011</v>
+        <v>9.7286425358923125</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.161382719247477</v>
+        <v>9.7286425358923125</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.623747210685011</v>
+        <v>7.3988886654549439</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.161382719247477</v>
+        <v>1.9201268162945357</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.623747210685011</v>
+        <v>4.8643212679461563</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>44.086111702122537</v>
+        <v>5.3507533947407726</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.699018227809951</v>
+        <v>5.4787618491604091</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.311924753497365</v>
+        <v>8.3717529190441748</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.131471655419496</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.131471655419496</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.474739231961969</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.935569667872656</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.131471655419496</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.083043591068858</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.935569667872656</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>41.013908796051282</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.631417488319215</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.709756616497842</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.788095744676461</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>36.866434872855088</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.327265308765782</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.788095744676461</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.248926180587141</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.709756616497842</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.248926180587141</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.709756616497842</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.248926180587141</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.709756616497842</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>38.248926180587141</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>37.788095744676461</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>39.170587052408528</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>40.553078360140596</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.271798689957173</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.271798689957173</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.691347950175739</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.254585149622137</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.271798689957173</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>56.323719944639713</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>51.254585149622137</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>50.128110750729348</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>48.438399152390154</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.311924753497365</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.185450354604562</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.058975955711773</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>45.622213155158178</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.185450354604562</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.748687554050953</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.311924753497365</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.748687554050953</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.311924753497365</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.748687554050953</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.311924753497365</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.748687554050953</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>46.185450354604562</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>47.875161952943763</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>49.564873551282957</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7096,9 +6830,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +6909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7276,7 +7010,7 @@
         <v>185.23667133840411</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7377,7 +7111,7 @@
         <v>175.97483777148389</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7478,7 +7212,7 @@
         <v>194.49850490532435</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7579,7 +7313,7 @@
         <v>166.71300420456373</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7693,9 +7427,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7772,7 +7506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7873,7 +7607,7 @@
         <v>151.55727654960336</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7974,7 +7708,7 @@
         <v>143.97941272212319</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8075,7 +7809,7 @@
         <v>159.13514037708353</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8176,7 +7910,7 @@
         <v>136.40154889464304</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
